--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>2.56</v>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Chinese Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Shanghai Port FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>1.18</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Japanese J League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Kobe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Kashima</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
         <v>4.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Japanese J League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Hiroshima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>1.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,64 +1126,64 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>07:05:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.33</v>
+        <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>1.11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.9</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="R6" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Lithuanian 1 Lyga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>FK Panevezys II</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>TransINVEST Vilnius</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Chinese Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>08:35:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>1.11</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
-        <v>2.48</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.27</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Chinese Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Qingdao Youth Island</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>980</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>AaB</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>1.34</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>12.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>6.2</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,192 +2341,1272 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Drogheda</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>980</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Galway Utd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>980</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>St Patricks</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lexington SC</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>980</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.68</v>
       </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="H23" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K23" t="n">
+        <v>980</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>2.56</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -691,28 +691,28 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.58</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
         <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.62</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
@@ -721,58 +721,58 @@
         <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.24</v>
+        <v>5.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="I3" t="n">
         <v>1.59</v>
       </c>
       <c r="J3" t="n">
-        <v>1.18</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
@@ -826,28 +826,28 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.06</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>2.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.12</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
         <v>2.68</v>
@@ -856,58 +856,58 @@
         <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -940,20 +940,20 @@
         <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.85</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
         <v>1.99</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,25 +1231,25 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.11</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>2.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
         <v>2.62</v>
@@ -1261,58 +1261,58 @@
         <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.01</v>
       </c>
-      <c r="G7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="M7" t="n">
         <v>1.01</v>
       </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.01</v>
       </c>
-      <c r="K7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="W7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1480,109 +1480,109 @@
         <v>1.11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.09</v>
       </c>
-      <c r="I8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,118 +1612,118 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>6.6</v>
       </c>
       <c r="G9" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>SK Poltava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Lithuanian 1 Lyga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>FK Panevezio Ekranas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Fk Tauras</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,78 +2138,78 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>2.18</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>1.34</v>
       </c>
       <c r="O13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.29</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,22 +2218,22 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2254,16 +2254,16 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,72 +2273,72 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>CS FC Dinamo Bucuresti</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.32</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.5</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.16</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.68</v>
+        <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X15" t="n">
         <v>980</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Vysocina Jihlava</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>1.52</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>1.09</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>SFC Opava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.36</v>
+        <v>1.73</v>
       </c>
       <c r="G18" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="K18" t="n">
         <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>1.93</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
         <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,66 +3083,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.05</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>FK Pribram</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>SK Artis Brno</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>11.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>1.94</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,135 +3478,2295 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ES Mostaganem</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ASO Chlef</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K23" t="n">
+        <v>950</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Danish 1st Division</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>B93 Copenhagen</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AaB</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahallah</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Al Ahli</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Al-Shabab (KSA)</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>St Patricks</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Drogheda</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K34" t="n">
+        <v>980</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Galway Utd</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bohemians</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Lexington SC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K23" t="n">
-        <v>980</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="F39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO95"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,13 +676,13 @@
         <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -691,19 +691,19 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -712,19 +712,19 @@
         <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -748,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15.5</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>1.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
         <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.21</v>
@@ -835,25 +835,25 @@
         <v>2.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -871,13 +871,13 @@
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
         <v>65</v>
@@ -895,19 +895,19 @@
         <v>170</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +943,7 @@
         <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
         <v>4.5</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>2.42</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I6" t="n">
         <v>2.98</v>
@@ -1222,43 +1222,43 @@
         <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
         <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="V6" t="n">
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1297,7 +1297,7 @@
         <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1507,13 +1507,13 @@
         <v>1.09</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
         <v>1.09</v>
       </c>
       <c r="R8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
         <v>1.81</v>
@@ -1528,7 +1528,7 @@
         <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,16 +1615,16 @@
         <v>6.8</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
         <v>5.2</v>
@@ -1633,73 +1633,73 @@
         <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="W9" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB9" t="n">
         <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.86</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.29</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.18</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2065,10 +2065,10 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>9.800000000000001</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:01:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2446,13 +2446,13 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.24</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
         <v>5.4</v>
@@ -2566,7 +2566,7 @@
         <v>1.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="J16" t="n">
         <v>4.1</v>
@@ -2578,7 +2578,7 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.2</v>
@@ -2587,7 +2587,7 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.62</v>
@@ -2596,19 +2596,19 @@
         <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T16" t="n">
         <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,10 +2620,10 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
         <v>980</v>
@@ -2632,28 +2632,28 @@
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2734,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
         <v>1.35</v>
@@ -2965,7 +2965,7 @@
         <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
@@ -3100,16 +3100,16 @@
         <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
         <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
@@ -3121,19 +3121,19 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
         <v>2.78</v>
@@ -3145,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3175,7 +3175,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
         <v>16.5</v>
@@ -3184,7 +3184,7 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3193,16 +3193,16 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
         <v>2.7</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
         <v>7.2</v>
@@ -3385,64 +3385,64 @@
         <v>5.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V22" t="n">
         <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3454,25 +3454,25 @@
         <v>30</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="n">
         <v>16</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -3646,10 +3646,10 @@
         <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
@@ -3670,7 +3670,7 @@
         <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
         <v>1.37</v>
@@ -3685,7 +3685,7 @@
         <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
         <v>1.81</v>
@@ -3784,7 +3784,7 @@
         <v>2.84</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
         <v>4.5</v>
@@ -3916,10 +3916,10 @@
         <v>2.26</v>
       </c>
       <c r="I26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
@@ -3931,16 +3931,16 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.96</v>
+        <v>1.11</v>
       </c>
       <c r="O26" t="n">
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R26" t="n">
         <v>1.32</v>
@@ -3955,7 +3955,7 @@
         <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W26" t="n">
         <v>1.35</v>
@@ -4201,13 +4201,13 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O28" t="n">
         <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
         <v>1.59</v>
@@ -4225,7 +4225,7 @@
         <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W28" t="n">
         <v>1.09</v>
@@ -4324,7 +4324,7 @@
         <v>3.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
         <v>4.2</v>
@@ -4336,34 +4336,34 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>1.11</v>
+        <v>2.34</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
         <v>1.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
         <v>2.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V29" t="n">
         <v>1.42</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G30" t="n">
         <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
         <v>4.6</v>
@@ -4462,7 +4462,7 @@
         <v>3.95</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.31</v>
@@ -4552,7 +4552,7 @@
         <v>9.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>1.94</v>
       </c>
       <c r="G31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H31" t="n">
         <v>3.95</v>
@@ -4603,7 +4603,7 @@
         <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
         <v>4.7</v>
@@ -4618,22 +4618,22 @@
         <v>1.69</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T31" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="V31" t="n">
         <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X31" t="n">
         <v>980</v>
@@ -4660,7 +4660,7 @@
         <v>980</v>
       </c>
       <c r="AF31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4720,10 +4720,10 @@
         <v>1.43</v>
       </c>
       <c r="G32" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="H32" t="n">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="I32" t="n">
         <v>10.5</v>
@@ -4768,7 +4768,7 @@
         <v>1.1</v>
       </c>
       <c r="W32" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -4861,7 +4861,7 @@
         <v>1.67</v>
       </c>
       <c r="I33" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4900,7 +4900,7 @@
         <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="W33" t="n">
         <v>1.2</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="G34" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H34" t="n">
         <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
         <v>4.9</v>
@@ -5017,7 +5017,7 @@
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
         <v>1.53</v>
@@ -5029,16 +5029,16 @@
         <v>2.32</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
@@ -5047,7 +5047,7 @@
         <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="n">
         <v>250</v>
@@ -5128,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I35" t="n">
         <v>3.6</v>
@@ -5137,7 +5137,7 @@
         <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,7 +5146,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -5155,7 +5155,7 @@
         <v>1.97</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R35" t="n">
         <v>1.38</v>
@@ -5266,7 +5266,7 @@
         <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>2.74</v>
@@ -5281,10 +5281,10 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.43</v>
+        <v>2.26</v>
       </c>
       <c r="O36" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="P36" t="n">
         <v>1.42</v>
@@ -5395,13 +5395,13 @@
         <v>2.12</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J37" t="n">
         <v>2.64</v>
@@ -5416,7 +5416,7 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="O37" t="n">
         <v>1.01</v>
@@ -5425,7 +5425,7 @@
         <v>1.52</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R37" t="n">
         <v>1.14</v>
@@ -5440,10 +5440,10 @@
         <v>1.03</v>
       </c>
       <c r="V37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X37" t="n">
         <v>11.5</v>
@@ -5554,7 +5554,7 @@
         <v>1.99</v>
       </c>
       <c r="O38" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P38" t="n">
         <v>1.98</v>
@@ -5800,19 +5800,19 @@
         <v>2.12</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="H40" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.11</v>
+        <v>2.04</v>
       </c>
       <c r="O40" t="n">
         <v>1.21</v>
       </c>
       <c r="P40" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q40" t="n">
         <v>1.21</v>
       </c>
       <c r="R40" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5845,10 +5845,10 @@
         <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5935,7 +5935,7 @@
         <v>3.55</v>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
         <v>1.91</v>
@@ -5944,7 +5944,7 @@
         <v>2.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K41" t="n">
         <v>4.7</v>
@@ -5968,7 +5968,7 @@
         <v>1.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
         <v>2.1</v>
@@ -5983,10 +5983,10 @@
         <v>1.9</v>
       </c>
       <c r="W41" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X41" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="n">
         <v>20</v>
@@ -6343,10 +6343,10 @@
         <v>6.4</v>
       </c>
       <c r="H44" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I44" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J44" t="n">
         <v>4.2</v>
@@ -6385,10 +6385,10 @@
         <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="W44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X44" t="n">
         <v>980</v>
@@ -6406,13 +6406,13 @@
         <v>980</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD44" t="n">
         <v>10.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AF44" t="n">
         <v>55</v>
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="I45" t="n">
-        <v>8.199999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="J45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S45" t="n">
         <v>3.25</v>
       </c>
-      <c r="K45" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V45" t="n">
         <v>1.01</v>
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="H46" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I46" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R46" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S46" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W46" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="G48" t="n">
-        <v>2.78</v>
+        <v>1.87</v>
       </c>
       <c r="H48" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S48" t="n">
         <v>3.25</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.65</v>
-      </c>
       <c r="T48" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U48" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="V48" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="W48" t="n">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="I49" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J49" t="n">
         <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G50" t="n">
         <v>2.32</v>
@@ -7156,13 +7156,13 @@
         <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J50" t="n">
         <v>3.35</v>
       </c>
       <c r="K50" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,7 +7171,7 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O50" t="n">
         <v>1.01</v>
@@ -7180,7 +7180,7 @@
         <v>1.76</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R50" t="n">
         <v>1.23</v>
@@ -7189,10 +7189,10 @@
         <v>3.2</v>
       </c>
       <c r="T50" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U50" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V50" t="n">
         <v>1.01</v>
@@ -7285,19 +7285,19 @@
         <v>2.04</v>
       </c>
       <c r="G51" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H51" t="n">
         <v>3.45</v>
       </c>
       <c r="I51" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K51" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,16 +7306,16 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O51" t="n">
         <v>1.01</v>
       </c>
       <c r="P51" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R51" t="n">
         <v>1.18</v>
@@ -7324,10 +7324,10 @@
         <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V51" t="n">
         <v>1.01</v>
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="G52" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.9</v>
+        <v>13.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>1.56</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7543,31 +7543,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="G53" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="I53" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="J53" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="K53" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,34 +7576,34 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W53" t="n">
         <v>1.76</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2.12</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,112 +7678,112 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.56</v>
+        <v>1.28</v>
       </c>
       <c r="G54" t="n">
-        <v>2.88</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
-        <v>2.92</v>
+        <v>4.8</v>
       </c>
       <c r="I54" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="K54" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>1.61</v>
+        <v>1.11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.34</v>
+        <v>1.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S54" t="n">
-        <v>3.9</v>
+        <v>1.87</v>
       </c>
       <c r="T54" t="n">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="U54" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="V54" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
-        <v>1.53</v>
+        <v>2.42</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,112 +7813,112 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.28</v>
+        <v>3.35</v>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
-        <v>4.8</v>
+        <v>2.18</v>
       </c>
       <c r="I55" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="J55" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R55" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="S55" t="n">
-        <v>1.63</v>
+        <v>2.72</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V55" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="W55" t="n">
-        <v>2.42</v>
+        <v>1.39</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
         <v>1000</v>
@@ -7927,7 +7927,7 @@
         <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -7948,73 +7948,73 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
         <v>3.35</v>
       </c>
-      <c r="G56" t="n">
-        <v>3.6</v>
-      </c>
       <c r="H56" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="I56" t="n">
-        <v>2.32</v>
+        <v>2.86</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="P56" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.67</v>
+        <v>2.28</v>
       </c>
       <c r="R56" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="S56" t="n">
-        <v>2.72</v>
+        <v>3.85</v>
       </c>
       <c r="T56" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="V56" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="W56" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Z56" t="n">
         <v>980</v>
@@ -8023,13 +8023,13 @@
         <v>980</v>
       </c>
       <c r="AB56" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE56" t="n">
         <v>980</v>
@@ -8041,19 +8041,19 @@
         <v>980</v>
       </c>
       <c r="AH56" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ56" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL56" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM56" t="n">
         <v>1000</v>
@@ -8083,115 +8083,115 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="G57" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="H57" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="I57" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="O57" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="P57" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S57" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="T57" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="U57" t="n">
         <v>1.76</v>
       </c>
       <c r="V57" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="W57" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="X57" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z57" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
         <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN57" t="n">
         <v>1000</v>
@@ -8218,121 +8218,121 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.86</v>
+        <v>1.91</v>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>1.97</v>
       </c>
       <c r="H58" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N58" t="n">
         <v>3</v>
       </c>
-      <c r="K58" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.04</v>
-      </c>
       <c r="O58" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.96</v>
+        <v>2.08</v>
       </c>
       <c r="R58" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S58" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="T58" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="U58" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="V58" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="W58" t="n">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="X58" t="n">
-        <v>9.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA58" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB58" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE58" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH58" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AK58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL58" t="n">
         <v>55</v>
       </c>
-      <c r="AL58" t="n">
-        <v>100</v>
-      </c>
       <c r="AM58" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
@@ -8353,121 +8353,121 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.86</v>
+        <v>2.52</v>
       </c>
       <c r="G59" t="n">
-        <v>1.88</v>
+        <v>2.84</v>
       </c>
       <c r="H59" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O59" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P59" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R59" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U59" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V59" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="W59" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="X59" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y59" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA59" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD59" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE59" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AF59" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH59" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI59" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AJ59" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AK59" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL59" t="n">
         <v>55</v>
       </c>
       <c r="AM59" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN59" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
@@ -8500,19 +8500,19 @@
         <v>2.36</v>
       </c>
       <c r="G60" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H60" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="I60" t="n">
         <v>3.05</v>
       </c>
       <c r="J60" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K60" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8521,10 +8521,10 @@
         <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O60" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P60" t="n">
         <v>2.24</v>
@@ -8545,10 +8545,10 @@
         <v>2.4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W60" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X60" t="n">
         <v>21</v>
@@ -8590,7 +8590,7 @@
         <v>36</v>
       </c>
       <c r="AK60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL60" t="n">
         <v>980</v>
@@ -8623,115 +8623,115 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S61" t="n">
         <v>2.54</v>
       </c>
-      <c r="I61" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N61" t="n">
+      <c r="T61" t="n">
         <v>1.03</v>
       </c>
-      <c r="O61" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U61" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="V61" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="W61" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="X61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA61" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC61" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL61" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM61" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
         <v>1000</v>
@@ -8758,118 +8758,118 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="H62" t="n">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
-        <v>4.3</v>
+        <v>15</v>
       </c>
       <c r="J62" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="K62" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M62" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
-        <v>2.26</v>
+        <v>7.2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="P62" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="R62" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="S62" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V62" t="n">
-        <v>1.35</v>
+        <v>1.07</v>
       </c>
       <c r="W62" t="n">
-        <v>1.81</v>
+        <v>4.1</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO62" t="n">
         <v>1000</v>
@@ -8893,118 +8893,118 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.27</v>
+        <v>2.26</v>
       </c>
       <c r="G63" t="n">
-        <v>1.32</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>2.34</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="J63" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="K63" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="L63" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>2.98</v>
+        <v>1.11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P63" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="R63" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="S63" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T63" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="U63" t="n">
-        <v>1.97</v>
+        <v>1.03</v>
       </c>
       <c r="V63" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="W63" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="X63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z63" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC63" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE63" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG63" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI63" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK63" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM63" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9028,28 +9028,28 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.09</v>
       </c>
-      <c r="G64" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.72</v>
-      </c>
       <c r="I64" t="n">
-        <v>3.35</v>
+        <v>870</v>
       </c>
       <c r="J64" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K64" t="n">
         <v>1000</v>
@@ -9058,37 +9058,37 @@
         <v>1.01</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>1.02</v>
+        <v>2.2</v>
       </c>
       <c r="O64" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="R64" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="S64" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="T64" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U64" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V64" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9163,31 +9163,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.34</v>
+        <v>2.62</v>
       </c>
       <c r="G65" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="H65" t="n">
-        <v>1.96</v>
+        <v>2.58</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="J65" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K65" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,82 +9196,82 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O65" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P65" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="S65" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V65" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="W65" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
       </c>
       <c r="Y65" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z65" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA65" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB65" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC65" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD65" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF65" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG65" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH65" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI65" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL65" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM65" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN65" t="n">
         <v>1000</v>
@@ -9298,118 +9298,118 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="G66" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="H66" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="J66" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P66" t="n">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="R66" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S66" t="n">
-        <v>2.08</v>
+        <v>2.8</v>
       </c>
       <c r="T66" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="U66" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="V66" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="W66" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="X66" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y66" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z66" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA66" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB66" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AC66" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD66" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE66" t="n">
         <v>980</v>
       </c>
       <c r="AF66" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG66" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH66" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI66" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ66" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK66" t="n">
         <v>980</v>
       </c>
       <c r="AL66" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM66" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN66" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO66" t="n">
         <v>1000</v>
@@ -9433,118 +9433,118 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="G67" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="I67" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="J67" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K67" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N67" t="n">
-        <v>2.12</v>
+        <v>1.11</v>
       </c>
       <c r="O67" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P67" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="R67" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="S67" t="n">
-        <v>2.56</v>
+        <v>2.04</v>
       </c>
       <c r="T67" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="U67" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="V67" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="W67" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X67" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y67" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z67" t="n">
         <v>980</v>
       </c>
       <c r="AA67" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AC67" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AE67" t="n">
         <v>980</v>
       </c>
       <c r="AF67" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG67" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH67" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI67" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ67" t="n">
         <v>980</v>
       </c>
       <c r="AK67" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL67" t="n">
         <v>980</v>
       </c>
       <c r="AM67" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN67" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO67" t="n">
         <v>1000</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G68" t="n">
         <v>2.8</v>
@@ -9592,7 +9592,7 @@
         <v>3.55</v>
       </c>
       <c r="K68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L68" t="n">
         <v>1.01</v>
@@ -9619,10 +9619,10 @@
         <v>2.46</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V68" t="n">
         <v>1.55</v>
@@ -9712,31 +9712,31 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="G69" t="n">
         <v>4.8</v>
       </c>
       <c r="H69" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I69" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J69" t="n">
         <v>3.25</v>
       </c>
       <c r="K69" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M69" t="n">
         <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O69" t="n">
         <v>1.27</v>
@@ -9754,13 +9754,13 @@
         <v>2.68</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U69" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V69" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W69" t="n">
         <v>1.26</v>
@@ -9817,13 +9817,13 @@
         <v>1000</v>
       </c>
       <c r="AO69" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9838,118 +9838,118 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="G70" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="J70" t="n">
-        <v>3.85</v>
+        <v>2.82</v>
       </c>
       <c r="K70" t="n">
         <v>4.5</v>
       </c>
       <c r="L70" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M70" t="n">
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="O70" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.73</v>
+        <v>2.18</v>
       </c>
       <c r="R70" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S70" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="T70" t="n">
-        <v>1.53</v>
+        <v>1.03</v>
       </c>
       <c r="U70" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="V70" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="W70" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="X70" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y70" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z70" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA70" t="n">
         <v>1000</v>
       </c>
       <c r="AB70" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC70" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD70" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE70" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF70" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG70" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI70" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ70" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK70" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL70" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM70" t="n">
         <v>1000</v>
       </c>
       <c r="AN70" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO70" t="n">
         <v>1000</v>
@@ -9958,7 +9958,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9973,127 +9973,127 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="G71" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="H71" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="I71" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="J71" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K71" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O71" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P71" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R71" t="n">
         <v>1.43</v>
       </c>
       <c r="S71" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="T71" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U71" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V71" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="W71" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="X71" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="Y71" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD71" t="n">
         <v>24</v>
       </c>
-      <c r="AA71" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB71" t="n">
+      <c r="AE71" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN71" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC71" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM71" t="n">
+      <c r="AO71" t="n">
         <v>80</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10108,118 +10108,118 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G72" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="H72" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="J72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K72" t="n">
         <v>3.55</v>
       </c>
-      <c r="K72" t="n">
-        <v>1000</v>
-      </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P72" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R72" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S72" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V72" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="W72" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE72" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI72" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK72" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM72" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN72" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO72" t="n">
         <v>1000</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10243,112 +10243,112 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K73" t="n">
+        <v>980</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N73" t="n">
         <v>2.2</v>
       </c>
-      <c r="G73" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.77</v>
-      </c>
       <c r="O73" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="P73" t="n">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="R73" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S73" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="T73" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="U73" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V73" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="W73" t="n">
-        <v>1.72</v>
+        <v>1.26</v>
       </c>
       <c r="X73" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y73" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z73" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA73" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB73" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC73" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD73" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE73" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG73" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH73" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI73" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ73" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK73" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL73" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM73" t="n">
         <v>1000</v>
@@ -10363,7 +10363,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,67 +10378,67 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="G74" t="n">
-        <v>2.48</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I74" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J74" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="K74" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="R74" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S74" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V74" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10498,7 +10498,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,127 +10513,127 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="H75" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="J75" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="K75" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="L75" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="O75" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P75" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="R75" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S75" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="T75" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U75" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V75" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="W75" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="X75" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA75" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB75" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD75" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE75" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF75" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH75" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI75" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK75" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL75" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM75" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO75" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,109 +10648,109 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="H76" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="I76" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J76" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="L76" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="O76" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P76" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="R76" t="n">
         <v>1.18</v>
       </c>
       <c r="S76" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="U76" t="n">
-        <v>1.58</v>
+        <v>1.03</v>
       </c>
       <c r="V76" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W76" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="X76" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y76" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z76" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA76" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC76" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD76" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE76" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG76" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH76" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI76" t="n">
         <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK76" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL76" t="n">
         <v>1000</v>
@@ -10804,13 +10804,13 @@
         <v>4.4</v>
       </c>
       <c r="J77" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K77" t="n">
         <v>4.1</v>
       </c>
       <c r="L77" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
@@ -10867,7 +10867,7 @@
         <v>17.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF77" t="n">
         <v>13.5</v>
@@ -10903,7 +10903,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10918,115 +10918,115 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6</v>
+      </c>
+      <c r="T78" t="n">
         <v>2.2</v>
       </c>
-      <c r="I78" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K78" t="n">
-        <v>980</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S78" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U78" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V78" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="W78" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z78" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB78" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD78" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL78" t="n">
         <v>1000</v>
       </c>
       <c r="AM78" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN78" t="n">
         <v>1000</v>
@@ -11068,7 +11068,7 @@
         <v>3.55</v>
       </c>
       <c r="H79" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I79" t="n">
         <v>2.9</v>
@@ -11086,7 +11086,7 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O79" t="n">
         <v>1.01</v>
@@ -11095,13 +11095,13 @@
         <v>1.51</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R79" t="n">
         <v>1.22</v>
       </c>
       <c r="S79" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T79" t="n">
         <v>1.74</v>
@@ -11188,121 +11188,121 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>St Patricks</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="I80" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="J80" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K80" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>2.78</v>
+        <v>1.64</v>
       </c>
       <c r="O80" t="n">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="P80" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="R80" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S80" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="T80" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U80" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="V80" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="W80" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="X80" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y80" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Z80" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA80" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AB80" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC80" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE80" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF80" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG80" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI80" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL80" t="n">
         <v>75</v>
       </c>
-      <c r="AL80" t="n">
-        <v>85</v>
-      </c>
       <c r="AM80" t="n">
         <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
@@ -11323,121 +11323,121 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>St Patricks</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.54</v>
+        <v>1.42</v>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>1.49</v>
       </c>
       <c r="H81" t="n">
-        <v>2.98</v>
+        <v>7</v>
       </c>
       <c r="I81" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="J81" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K81" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N81" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="O81" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="P81" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="R81" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="S81" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="T81" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="U81" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="V81" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="W81" t="n">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y81" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ81" t="n">
         <v>15</v>
       </c>
-      <c r="Z81" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>60</v>
-      </c>
       <c r="AK81" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL81" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN81" t="n">
-        <v>48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO81" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82">
@@ -11458,106 +11458,106 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Galway Utd</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.47</v>
+        <v>2.96</v>
       </c>
       <c r="G82" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>2.64</v>
       </c>
       <c r="J82" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K82" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O82" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U82" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q82" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R82" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S82" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.77</v>
-      </c>
       <c r="V82" t="n">
-        <v>1.11</v>
+        <v>1.61</v>
       </c>
       <c r="W82" t="n">
-        <v>2.8</v>
+        <v>1.44</v>
       </c>
       <c r="X82" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>95</v>
+        <v>17.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB82" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC82" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD82" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AF82" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AG82" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH82" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI82" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ82" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AK82" t="n">
         <v>980</v>
@@ -11566,13 +11566,13 @@
         <v>980</v>
       </c>
       <c r="AM82" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AN82" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AO82" t="n">
-        <v>180</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -11593,31 +11593,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Galway Utd</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.84</v>
+        <v>1.56</v>
       </c>
       <c r="G83" t="n">
-        <v>3.15</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="I83" t="n">
-        <v>2.76</v>
+        <v>980</v>
       </c>
       <c r="J83" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K83" t="n">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,88 +11626,88 @@
         <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>3.55</v>
+        <v>1.71</v>
       </c>
       <c r="O83" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P83" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R83" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S83" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="U83" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="V83" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="W83" t="n">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="X83" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y83" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA83" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD83" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG83" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH83" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI83" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK83" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL83" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM83" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO83" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84">
@@ -11728,31 +11728,31 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.09</v>
+        <v>3.5</v>
       </c>
       <c r="G84" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>4.7</v>
+        <v>2.06</v>
       </c>
       <c r="I84" t="n">
-        <v>980</v>
+        <v>2.36</v>
       </c>
       <c r="J84" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K84" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11761,79 +11761,79 @@
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="O84" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P84" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R84" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S84" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T84" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U84" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V84" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="W84" t="n">
-        <v>2.06</v>
+        <v>1.33</v>
       </c>
       <c r="X84" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y84" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z84" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA84" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB84" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC84" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD84" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE84" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF84" t="n">
         <v>1000</v>
       </c>
       <c r="AG84" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH84" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI84" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL84" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM84" t="n">
         <v>1000</v>
@@ -11863,31 +11863,31 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="G85" t="n">
-        <v>2.22</v>
+        <v>2.84</v>
       </c>
       <c r="H85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I85" t="n">
         <v>3.5</v>
       </c>
-      <c r="I85" t="n">
-        <v>5.7</v>
-      </c>
       <c r="J85" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K85" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,34 +11896,34 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="O85" t="n">
         <v>1.22</v>
       </c>
       <c r="P85" t="n">
-        <v>1.37</v>
+        <v>2.06</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R85" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S85" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T85" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U85" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V85" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="W85" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12016,13 +12016,13 @@
         <v>1.86</v>
       </c>
       <c r="I86" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J86" t="n">
         <v>3.15</v>
       </c>
       <c r="K86" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,16 +12031,16 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O86" t="n">
         <v>1.28</v>
       </c>
       <c r="P86" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R86" t="n">
         <v>1.32</v>
@@ -12049,13 +12049,13 @@
         <v>2.66</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U86" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V86" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W86" t="n">
         <v>1.25</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>2.14</v>
       </c>
       <c r="I87" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J87" t="n">
         <v>3.15</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12184,16 +12184,16 @@
         <v>2.52</v>
       </c>
       <c r="T87" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U87" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V87" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W87" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12319,10 +12319,10 @@
         <v>2.28</v>
       </c>
       <c r="T88" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U88" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V88" t="n">
         <v>1.4</v>
@@ -12448,10 +12448,10 @@
         <v>1.49</v>
       </c>
       <c r="R89" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S89" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T89" t="n">
         <v>1.89</v>
@@ -12490,7 +12490,7 @@
         <v>140</v>
       </c>
       <c r="AF89" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG89" t="n">
         <v>10.5</v>
@@ -12538,31 +12538,31 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="G90" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
       <c r="H90" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="J90" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K90" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12571,34 +12571,34 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R90" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S90" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V90" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="W90" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G91" t="n">
         <v>3.2</v>
@@ -12691,7 +12691,7 @@
         <v>2.62</v>
       </c>
       <c r="I91" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J91" t="n">
         <v>3.25</v>
@@ -12700,7 +12700,7 @@
         <v>3.3</v>
       </c>
       <c r="L91" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M91" t="n">
         <v>1.11</v>
@@ -12715,7 +12715,7 @@
         <v>1.66</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R91" t="n">
         <v>1.24</v>
@@ -12736,7 +12736,7 @@
         <v>1.45</v>
       </c>
       <c r="X91" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y91" t="n">
         <v>8.800000000000001</v>
@@ -12769,7 +12769,7 @@
         <v>21</v>
       </c>
       <c r="AI91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ91" t="n">
         <v>55</v>
@@ -12784,7 +12784,7 @@
         <v>160</v>
       </c>
       <c r="AN91" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO91" t="n">
         <v>36</v>
@@ -12835,16 +12835,16 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P92" t="n">
         <v>1.25</v>
@@ -12853,82 +12853,82 @@
         <v>1.01</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12943,127 +12943,127 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Santiago Morning</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>1.99</v>
       </c>
       <c r="G93" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H93" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="I93" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J93" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K93" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P93" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -13073,261 +13073,1341 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Santiago Morning</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="H94" t="n">
-        <v>2.82</v>
+        <v>2.26</v>
       </c>
       <c r="I94" t="n">
-        <v>3.65</v>
+        <v>2.56</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K94" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P94" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA94" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG94" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH94" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ94" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK94" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL94" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM94" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN94" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO94" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K95" t="n">
+        <v>980</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Lexington SC</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Uruguayan Segunda Division</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CA Rentistas</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Uruguay Montevideo FC</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K98" t="n">
+        <v>980</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K99" t="n">
+        <v>4</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X100" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F101" t="n">
         <v>1.56</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G101" t="n">
         <v>1.66</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H101" t="n">
         <v>6.6</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I101" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J101" t="n">
         <v>3.9</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K101" t="n">
         <v>4.6</v>
       </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" t="n">
-        <v>0</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0</v>
-      </c>
-      <c r="V95" t="n">
-        <v>0</v>
-      </c>
-      <c r="W95" t="n">
-        <v>0</v>
-      </c>
-      <c r="X95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>0</v>
+      <c r="L101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Orense Sporting Club</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K102" t="n">
+        <v>980</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>OHiggins</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -688,7 +688,7 @@
         <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>5.7</v>
@@ -697,10 +697,10 @@
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
         <v>1.66</v>
@@ -712,67 +712,67 @@
         <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
         <v>17.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
         <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I3" t="n">
         <v>1.52</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -838,13 +838,13 @@
         <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U3" t="n">
         <v>2.46</v>
@@ -853,7 +853,7 @@
         <v>2.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -871,7 +871,7 @@
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>11.5</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1090,94 +1090,94 @@
         <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1240,10 +1240,10 @@
         <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
         <v>2.42</v>
@@ -1252,16 +1252,16 @@
         <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
         <v>18.5</v>
@@ -1273,46 +1273,46 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1402,7 +1402,7 @@
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1510,13 +1510,13 @@
         <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1627,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.17</v>
@@ -1645,16 +1645,16 @@
         <v>3.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R9" t="n">
         <v>2.04</v>
       </c>
       <c r="S9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
@@ -1666,13 +1666,13 @@
         <v>7.6</v>
       </c>
       <c r="X9" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
         <v>17.5</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK9" t="n">
         <v>14.5</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
         <v>1.51</v>
@@ -1765,34 +1765,34 @@
         <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
         <v>1.69</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>2.96</v>
@@ -1828,7 +1828,7 @@
         <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>36</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G11" t="n">
         <v>7.6</v>
@@ -1897,7 +1897,7 @@
         <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3</v>
+        <v>1.89</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.42</v>
+        <v>1.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.13</v>
       </c>
       <c r="S13" t="n">
-        <v>2.42</v>
+        <v>1.05</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2203,7 +2203,7 @@
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.09</v>
+        <v>2.44</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>870</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="R14" t="n">
         <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2338,10 +2338,10 @@
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2449,13 +2449,13 @@
         <v>1.11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>1.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
         <v>1.16</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G18" t="n">
         <v>980</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="R18" t="n">
         <v>1.09</v>
       </c>
       <c r="S18" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I19" t="n">
         <v>1.86</v>
@@ -3001,16 +3001,16 @@
         <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="T19" t="n">
         <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W19" t="n">
         <v>1.25</v>
@@ -3028,7 +3028,7 @@
         <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>980</v>
@@ -3049,7 +3049,7 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>120</v>
@@ -3109,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,7 +3130,7 @@
         <v>1.89</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
@@ -3139,10 +3139,10 @@
         <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
         <v>1.33</v>
@@ -3235,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>4.5</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3394,19 +3394,19 @@
         <v>1.11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
         <v>1.03</v>
@@ -3415,10 +3415,10 @@
         <v>1.03</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3544,16 +3544,16 @@
         <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U23" t="n">
         <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3580,10 +3580,10 @@
         <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
         <v>19.5</v>
@@ -3595,10 +3595,10 @@
         <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="n">
         <v>95</v>
@@ -3646,10 +3646,10 @@
         <v>2.26</v>
       </c>
       <c r="I24" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.75</v>
@@ -3661,19 +3661,19 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
         <v>3</v>
@@ -3685,7 +3685,7 @@
         <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W24" t="n">
         <v>1.34</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="I25" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
         <v>3.95</v>
@@ -3796,19 +3796,19 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
         <v>1.71</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
         <v>3.1</v>
@@ -3817,13 +3817,13 @@
         <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
         <v>980</v>
@@ -3913,10 +3913,10 @@
         <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J26" t="n">
         <v>5.5</v>
@@ -3931,10 +3931,10 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
         <v>2.14</v>
@@ -3949,13 +3949,13 @@
         <v>2.86</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
         <v>3.6</v>
@@ -4051,7 +4051,7 @@
         <v>1.71</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
@@ -4069,7 +4069,7 @@
         <v>1.85</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
         <v>1.85</v>
@@ -4090,7 +4090,7 @@
         <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W27" t="n">
         <v>1.17</v>
@@ -4186,10 +4186,10 @@
         <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
         <v>4.3</v>
@@ -4213,19 +4213,19 @@
         <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W28" t="n">
         <v>1.81</v>
@@ -4258,7 +4258,7 @@
         <v>17.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>20</v>
@@ -4312,100 +4312,100 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="T29" t="n">
         <v>1.95</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W29" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AB29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
         <v>140</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
         <v>46</v>
@@ -4414,10 +4414,10 @@
         <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.32</v>
@@ -4477,7 +4477,7 @@
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
         <v>1.76</v>
@@ -4495,19 +4495,19 @@
         <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
         <v>1.6</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
         <v>980</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="n">
         <v>55</v>
@@ -4519,10 +4519,10 @@
         <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
         <v>21</v>
@@ -4534,13 +4534,13 @@
         <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
@@ -4549,10 +4549,10 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>960</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -4585,19 +4585,19 @@
         <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J31" t="n">
         <v>4</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4615,7 +4615,7 @@
         <v>2.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
         <v>1.53</v>
@@ -4627,13 +4627,13 @@
         <v>1.64</v>
       </c>
       <c r="U31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
         <v>25</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI31" t="n">
         <v>46</v>
@@ -4687,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I32" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.95</v>
@@ -4735,40 +4735,40 @@
         <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U32" t="n">
         <v>2.32</v>
       </c>
       <c r="V32" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W32" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
         <v>24</v>
@@ -4777,25 +4777,25 @@
         <v>980</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
         <v>85</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF32" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
@@ -4807,7 +4807,7 @@
         <v>48</v>
       </c>
       <c r="AJ32" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK32" t="n">
         <v>960</v>
@@ -4819,10 +4819,10 @@
         <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AO32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -4858,7 +4858,7 @@
         <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I33" t="n">
         <v>3.35</v>
@@ -4876,7 +4876,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O33" t="n">
         <v>1.19</v>
@@ -4888,7 +4888,7 @@
         <v>1.51</v>
       </c>
       <c r="R33" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S33" t="n">
         <v>2.44</v>
@@ -4993,10 +4993,10 @@
         <v>10.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I34" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5035,7 +5035,7 @@
         <v>1.03</v>
       </c>
       <c r="V34" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W34" t="n">
         <v>1.11</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G35" t="n">
         <v>2.46</v>
@@ -5131,10 +5131,10 @@
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
@@ -5146,13 +5146,13 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>2.12</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q35" t="n">
         <v>1.24</v>
@@ -5167,10 +5167,10 @@
         <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
         <v>1.68</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I36" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K36" t="n">
         <v>4.9</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G37" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="H37" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J37" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,61 +5416,61 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="R37" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="T37" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y37" t="n">
         <v>980</v>
       </c>
       <c r="Z37" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA37" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB37" t="n">
         <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>980</v>
       </c>
       <c r="AE37" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
@@ -5479,25 +5479,25 @@
         <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
         <v>14</v>
       </c>
       <c r="AK37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -5530,7 +5530,7 @@
         <v>2.52</v>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H38" t="n">
         <v>2.68</v>
@@ -5560,7 +5560,7 @@
         <v>1.98</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
         <v>1.41</v>
@@ -5578,7 +5578,7 @@
         <v>1.43</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="G39" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
         <v>2.78</v>
@@ -5680,13 +5680,13 @@
         <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M39" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N39" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
         <v>1.65</v>
@@ -5695,7 +5695,7 @@
         <v>1.43</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="R39" t="n">
         <v>1.15</v>
@@ -5704,67 +5704,67 @@
         <v>6.6</v>
       </c>
       <c r="T39" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="V39" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X39" t="n">
         <v>7.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG39" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5800,19 +5800,19 @@
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I40" t="n">
         <v>1.64</v>
       </c>
       <c r="J40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.3</v>
@@ -5821,31 +5821,31 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S40" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T40" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U40" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W40" t="n">
         <v>1.18</v>
@@ -5881,7 +5881,7 @@
         <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI40" t="n">
         <v>34</v>
@@ -5896,7 +5896,7 @@
         <v>75</v>
       </c>
       <c r="AM40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN40" t="n">
         <v>80</v>
@@ -5932,94 +5932,94 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P41" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="R41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.19</v>
       </c>
-      <c r="S41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="X41" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
         <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
@@ -6031,7 +6031,7 @@
         <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
@@ -6073,7 +6073,7 @@
         <v>1.56</v>
       </c>
       <c r="H42" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="I42" t="n">
         <v>10.5</v>
@@ -6091,16 +6091,16 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="O42" t="n">
         <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R42" t="n">
         <v>1.37</v>
@@ -6118,7 +6118,7 @@
         <v>1.1</v>
       </c>
       <c r="W42" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6208,7 +6208,7 @@
         <v>2.84</v>
       </c>
       <c r="H43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I43" t="n">
         <v>3.3</v>
@@ -6217,16 +6217,16 @@
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.99</v>
+        <v>3.4</v>
       </c>
       <c r="O43" t="n">
         <v>1.27</v>
@@ -6238,10 +6238,10 @@
         <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S43" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T43" t="n">
         <v>1.03</v>
@@ -6361,10 +6361,10 @@
         <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>2.58</v>
+        <v>5.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
         <v>2.58</v>
@@ -6373,7 +6373,7 @@
         <v>1.53</v>
       </c>
       <c r="R44" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S44" t="n">
         <v>2.16</v>
@@ -6475,16 +6475,16 @@
         <v>1.96</v>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H45" t="n">
         <v>4.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>3.4</v>
@@ -6880,10 +6880,10 @@
         <v>2.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H48" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I48" t="n">
         <v>3.35</v>
@@ -6892,7 +6892,7 @@
         <v>3.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6913,7 +6913,7 @@
         <v>2.08</v>
       </c>
       <c r="R48" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S48" t="n">
         <v>3.4</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G49" t="n">
         <v>2.26</v>
@@ -7021,10 +7021,10 @@
         <v>3.8</v>
       </c>
       <c r="I49" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.45</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H50" t="n">
         <v>5.3</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7177,13 +7177,13 @@
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="Q50" t="n">
         <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S50" t="n">
         <v>3.6</v>
@@ -7285,7 +7285,7 @@
         <v>2.4</v>
       </c>
       <c r="G51" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H51" t="n">
         <v>2.9</v>
@@ -7294,7 +7294,7 @@
         <v>3.35</v>
       </c>
       <c r="J51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
         <v>3.7</v>
@@ -7321,7 +7321,7 @@
         <v>1.29</v>
       </c>
       <c r="S51" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T51" t="n">
         <v>1.79</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K52" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,7 +7441,7 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="O52" t="n">
         <v>1.01</v>
@@ -7450,7 +7450,7 @@
         <v>1.58</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R52" t="n">
         <v>1.19</v>
@@ -7465,10 +7465,10 @@
         <v>1.03</v>
       </c>
       <c r="V52" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7558,7 +7558,7 @@
         <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I53" t="n">
         <v>11</v>
@@ -7567,7 +7567,7 @@
         <v>3.4</v>
       </c>
       <c r="K53" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="G54" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I54" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J54" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7717,13 +7717,13 @@
         <v>1.01</v>
       </c>
       <c r="P54" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="R54" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S54" t="n">
         <v>3.3</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="G55" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="H55" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="J55" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K55" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7852,10 +7852,10 @@
         <v>1.01</v>
       </c>
       <c r="P55" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R55" t="n">
         <v>1.18</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="G56" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,7 +7981,7 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="O56" t="n">
         <v>1.01</v>
@@ -7990,10 +7990,10 @@
         <v>1.74</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S56" t="n">
         <v>3.35</v>
@@ -8005,10 +8005,10 @@
         <v>1.03</v>
       </c>
       <c r="V56" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G57" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H57" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J57" t="n">
         <v>3.2</v>
@@ -8113,7 +8113,7 @@
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
         <v>2.8</v>
@@ -8122,10 +8122,10 @@
         <v>1.46</v>
       </c>
       <c r="P57" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R57" t="n">
         <v>1.23</v>
@@ -8140,10 +8140,10 @@
         <v>1.86</v>
       </c>
       <c r="V57" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W57" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="G58" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>1.09</v>
       </c>
       <c r="I58" t="n">
         <v>1000</v>
       </c>
       <c r="J58" t="n">
-        <v>4.4</v>
+        <v>1.09</v>
       </c>
       <c r="K58" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8263,10 +8263,10 @@
         <v>1.2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="T58" t="n">
         <v>1.03</v>
@@ -8275,10 +8275,10 @@
         <v>1.03</v>
       </c>
       <c r="V58" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W58" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8371,7 +8371,7 @@
         <v>2.16</v>
       </c>
       <c r="I59" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J59" t="n">
         <v>3.6</v>
@@ -8410,7 +8410,7 @@
         <v>2.24</v>
       </c>
       <c r="V59" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W59" t="n">
         <v>1.38</v>
@@ -8446,7 +8446,7 @@
         <v>980</v>
       </c>
       <c r="AH59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI59" t="n">
         <v>44</v>
@@ -8506,7 +8506,7 @@
         <v>2.52</v>
       </c>
       <c r="I60" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J60" t="n">
         <v>3.05</v>
@@ -8515,7 +8515,7 @@
         <v>3.35</v>
       </c>
       <c r="L60" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
@@ -8524,10 +8524,10 @@
         <v>3</v>
       </c>
       <c r="O60" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P60" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q60" t="n">
         <v>2.24</v>
@@ -8539,10 +8539,10 @@
         <v>3.9</v>
       </c>
       <c r="T60" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U60" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V60" t="n">
         <v>1.56</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G61" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J61" t="n">
         <v>3.1</v>
@@ -8656,7 +8656,7 @@
         <v>1.11</v>
       </c>
       <c r="N61" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.51</v>
@@ -8665,7 +8665,7 @@
         <v>1.55</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R61" t="n">
         <v>1.2</v>
@@ -8680,10 +8680,10 @@
         <v>1.78</v>
       </c>
       <c r="V61" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W61" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X61" t="n">
         <v>9.800000000000001</v>
@@ -8701,10 +8701,10 @@
         <v>11</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE61" t="n">
         <v>1000</v>
@@ -8716,7 +8716,7 @@
         <v>1000</v>
       </c>
       <c r="AH61" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI61" t="n">
         <v>1000</v>
@@ -8725,7 +8725,7 @@
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL61" t="n">
         <v>1000</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H62" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I62" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J62" t="n">
         <v>3.5</v>
       </c>
       <c r="K62" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L62" t="n">
         <v>1.46</v>
@@ -8791,7 +8791,7 @@
         <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -8800,22 +8800,22 @@
         <v>1.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
         <v>1.27</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T62" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U62" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V62" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W62" t="n">
         <v>2.04</v>
@@ -8824,7 +8824,7 @@
         <v>980</v>
       </c>
       <c r="Y62" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z62" t="n">
         <v>38</v>
@@ -8845,10 +8845,10 @@
         <v>80</v>
       </c>
       <c r="AF62" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG62" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH62" t="n">
         <v>25</v>
@@ -8860,7 +8860,7 @@
         <v>23</v>
       </c>
       <c r="AK62" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL62" t="n">
         <v>55</v>
@@ -8905,16 +8905,16 @@
         <v>2.44</v>
       </c>
       <c r="G63" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H63" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I63" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J63" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K63" t="n">
         <v>4.1</v>
@@ -8926,7 +8926,7 @@
         <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O63" t="n">
         <v>1.25</v>
@@ -8941,10 +8941,10 @@
         <v>1.46</v>
       </c>
       <c r="S63" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T63" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U63" t="n">
         <v>2.36</v>
@@ -8953,7 +8953,7 @@
         <v>1.51</v>
       </c>
       <c r="W63" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X63" t="n">
         <v>19.5</v>
@@ -8995,7 +8995,7 @@
         <v>36</v>
       </c>
       <c r="AK63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL63" t="n">
         <v>34</v>
@@ -9061,25 +9061,25 @@
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P64" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q64" t="n">
         <v>1.67</v>
       </c>
       <c r="R64" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S64" t="n">
         <v>2.66</v>
       </c>
       <c r="T64" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U64" t="n">
         <v>2.36</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G65" t="n">
         <v>2.3</v>
@@ -9181,10 +9181,10 @@
         <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J65" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K65" t="n">
         <v>3.95</v>
@@ -9196,34 +9196,34 @@
         <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O65" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P65" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="T65" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U65" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V65" t="n">
         <v>1.37</v>
       </c>
       <c r="W65" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9241,7 +9241,7 @@
         <v>1000</v>
       </c>
       <c r="AC65" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD65" t="n">
         <v>1000</v>
@@ -9355,7 +9355,7 @@
         <v>2.5</v>
       </c>
       <c r="V66" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W66" t="n">
         <v>1.56</v>
@@ -9448,7 +9448,7 @@
         <v>2.04</v>
       </c>
       <c r="H67" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
         <v>870</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G68" t="n">
         <v>2.64</v>
@@ -9727,7 +9727,7 @@
         <v>6.6</v>
       </c>
       <c r="K69" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.21</v>
@@ -9757,7 +9757,7 @@
         <v>1.86</v>
       </c>
       <c r="U69" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V69" t="n">
         <v>1.07</v>
@@ -9790,7 +9790,7 @@
         <v>180</v>
       </c>
       <c r="AF69" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG69" t="n">
         <v>12</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G70" t="n">
         <v>3.1</v>
@@ -9859,13 +9859,13 @@
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K70" t="n">
         <v>5</v>
       </c>
       <c r="L70" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -9874,19 +9874,19 @@
         <v>1.11</v>
       </c>
       <c r="O70" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P70" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="Q70" t="n">
         <v>1.11</v>
       </c>
       <c r="R70" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="S70" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T70" t="n">
         <v>1.03</v>
@@ -9985,19 +9985,19 @@
         <v>2.54</v>
       </c>
       <c r="G71" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H71" t="n">
         <v>2.58</v>
       </c>
       <c r="I71" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J71" t="n">
         <v>3.55</v>
       </c>
       <c r="K71" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10123,16 +10123,16 @@
         <v>5.2</v>
       </c>
       <c r="H72" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I72" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J72" t="n">
         <v>3.25</v>
       </c>
       <c r="K72" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L72" t="n">
         <v>1.29</v>
@@ -10165,7 +10165,7 @@
         <v>1.03</v>
       </c>
       <c r="V72" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W72" t="n">
         <v>1.24</v>
@@ -10195,7 +10195,7 @@
         <v>29</v>
       </c>
       <c r="AF72" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG72" t="n">
         <v>980</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G73" t="n">
         <v>2.34</v>
       </c>
       <c r="H73" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I73" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K73" t="n">
         <v>3.55</v>
@@ -10282,28 +10282,28 @@
         <v>1.37</v>
       </c>
       <c r="P73" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q73" t="n">
         <v>2.08</v>
       </c>
       <c r="R73" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S73" t="n">
         <v>3.85</v>
       </c>
       <c r="T73" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U73" t="n">
         <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W73" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X73" t="n">
         <v>13.5</v>
@@ -10387,31 +10387,31 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="G74" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="H74" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I74" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="J74" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K74" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O74" t="n">
         <v>1.24</v>
@@ -10420,49 +10420,49 @@
         <v>2.16</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R74" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S74" t="n">
         <v>2.74</v>
       </c>
       <c r="T74" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U74" t="n">
         <v>2.14</v>
       </c>
       <c r="V74" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="W74" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X74" t="n">
         <v>23</v>
       </c>
       <c r="Y74" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD74" t="n">
         <v>24</v>
       </c>
-      <c r="Z74" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>22</v>
-      </c>
       <c r="AE74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF74" t="n">
         <v>14.5</v>
@@ -10471,13 +10471,13 @@
         <v>12.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI74" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK74" t="n">
         <v>21</v>
@@ -10489,7 +10489,7 @@
         <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO74" t="n">
         <v>1000</v>
@@ -10522,16 +10522,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="G75" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="H75" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I75" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J75" t="n">
         <v>3.55</v>
@@ -10540,40 +10540,40 @@
         <v>3.9</v>
       </c>
       <c r="L75" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P75" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S75" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T75" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="U75" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V75" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W75" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X75" t="n">
         <v>15</v>
@@ -10594,13 +10594,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD75" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AE75" t="n">
         <v>1000</v>
       </c>
       <c r="AF75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG75" t="n">
         <v>11</v>
@@ -10618,13 +10618,13 @@
         <v>23</v>
       </c>
       <c r="AL75" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM75" t="n">
         <v>130</v>
       </c>
       <c r="AN75" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO75" t="n">
         <v>1000</v>
@@ -10660,7 +10660,7 @@
         <v>1.97</v>
       </c>
       <c r="G76" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="H76" t="n">
         <v>3.3</v>
@@ -10681,16 +10681,16 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="O76" t="n">
         <v>1.01</v>
       </c>
       <c r="P76" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R76" t="n">
         <v>1.18</v>
@@ -10708,7 +10708,7 @@
         <v>1.26</v>
       </c>
       <c r="W76" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10795,16 +10795,16 @@
         <v>3.25</v>
       </c>
       <c r="G77" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H77" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I77" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J77" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="K77" t="n">
         <v>3.3</v>
@@ -10813,40 +10813,40 @@
         <v>1.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N77" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P77" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="R77" t="n">
         <v>1.18</v>
       </c>
       <c r="S77" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="T77" t="n">
         <v>2.12</v>
       </c>
       <c r="U77" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V77" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W77" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X77" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y77" t="n">
         <v>7.4</v>
@@ -10858,7 +10858,7 @@
         <v>1000</v>
       </c>
       <c r="AB77" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC77" t="n">
         <v>7.4</v>
@@ -10867,7 +10867,7 @@
         <v>13</v>
       </c>
       <c r="AE77" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF77" t="n">
         <v>28</v>
@@ -10876,7 +10876,7 @@
         <v>18.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI77" t="n">
         <v>1000</v>
@@ -10930,7 +10930,7 @@
         <v>2.68</v>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H78" t="n">
         <v>2.84</v>
@@ -10939,7 +10939,7 @@
         <v>3.35</v>
       </c>
       <c r="J78" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="K78" t="n">
         <v>3.3</v>
@@ -10960,7 +10960,7 @@
         <v>1.51</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="R78" t="n">
         <v>1.18</v>
@@ -10978,7 +10978,7 @@
         <v>1.42</v>
       </c>
       <c r="W78" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X78" t="n">
         <v>10.5</v>
@@ -11074,40 +11074,40 @@
         <v>4.5</v>
       </c>
       <c r="J79" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L79" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O79" t="n">
         <v>1.28</v>
       </c>
       <c r="P79" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R79" t="n">
         <v>1.38</v>
       </c>
       <c r="S79" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T79" t="n">
         <v>1.73</v>
       </c>
       <c r="U79" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V79" t="n">
         <v>1.3</v>
@@ -11128,7 +11128,7 @@
         <v>85</v>
       </c>
       <c r="AB79" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC79" t="n">
         <v>8.800000000000001</v>
@@ -11137,7 +11137,7 @@
         <v>17.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF79" t="n">
         <v>13.5</v>
@@ -11149,7 +11149,7 @@
         <v>18.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ79" t="n">
         <v>25</v>
@@ -11164,7 +11164,7 @@
         <v>110</v>
       </c>
       <c r="AN79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO79" t="n">
         <v>50</v>
@@ -11197,19 +11197,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J80" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K80" t="n">
         <v>3.05</v>
@@ -11218,43 +11218,43 @@
         <v>1.6</v>
       </c>
       <c r="M80" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N80" t="n">
         <v>2.4</v>
       </c>
       <c r="O80" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P80" t="n">
         <v>1.47</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="R80" t="n">
         <v>1.17</v>
       </c>
       <c r="S80" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U80" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V80" t="n">
         <v>1.38</v>
       </c>
       <c r="W80" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X80" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z80" t="n">
         <v>23</v>
@@ -11263,10 +11263,10 @@
         <v>75</v>
       </c>
       <c r="AB80" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD80" t="n">
         <v>17</v>
@@ -11332,16 +11332,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G81" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I81" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.45</v>
       </c>
       <c r="J81" t="n">
         <v>3.65</v>
@@ -11356,7 +11356,7 @@
         <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O81" t="n">
         <v>1.27</v>
@@ -11365,31 +11365,31 @@
         <v>2.14</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R81" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S81" t="n">
         <v>3.05</v>
       </c>
       <c r="T81" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U81" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V81" t="n">
         <v>1.41</v>
       </c>
       <c r="W81" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X81" t="n">
         <v>16.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z81" t="n">
         <v>24</v>
@@ -11422,7 +11422,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK81" t="n">
         <v>23</v>
@@ -11434,7 +11434,7 @@
         <v>75</v>
       </c>
       <c r="AN81" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO81" t="n">
         <v>30</v>
@@ -11611,13 +11611,13 @@
         <v>2.64</v>
       </c>
       <c r="I83" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="J83" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K83" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,13 +11626,13 @@
         <v>1.12</v>
       </c>
       <c r="N83" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O83" t="n">
         <v>1.55</v>
       </c>
       <c r="P83" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q83" t="n">
         <v>2.64</v>
@@ -11644,19 +11644,19 @@
         <v>5.3</v>
       </c>
       <c r="T83" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U83" t="n">
         <v>1.76</v>
       </c>
       <c r="V83" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W83" t="n">
         <v>1.41</v>
       </c>
       <c r="X83" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Y83" t="n">
         <v>980</v>
@@ -11665,7 +11665,7 @@
         <v>17.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AB83" t="n">
         <v>980</v>
@@ -11776,7 +11776,7 @@
         <v>1.29</v>
       </c>
       <c r="S84" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T84" t="n">
         <v>1.64</v>
@@ -11797,7 +11797,7 @@
         <v>980</v>
       </c>
       <c r="Z84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA84" t="n">
         <v>30</v>
@@ -11812,7 +11812,7 @@
         <v>980</v>
       </c>
       <c r="AE84" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF84" t="n">
         <v>1000</v>
@@ -11875,10 +11875,10 @@
         <v>2.56</v>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H85" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3.3</v>
@@ -11941,7 +11941,7 @@
         <v>11</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD85" t="n">
         <v>16.5</v>
@@ -12049,7 +12049,7 @@
         <v>2.88</v>
       </c>
       <c r="T86" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U86" t="n">
         <v>1.77</v>
@@ -12061,7 +12061,7 @@
         <v>3</v>
       </c>
       <c r="X86" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y86" t="n">
         <v>980</v>
@@ -12145,16 +12145,16 @@
         <v>1.56</v>
       </c>
       <c r="G87" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I87" t="n">
         <v>970</v>
       </c>
       <c r="J87" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="K87" t="n">
         <v>970</v>
@@ -12181,7 +12181,7 @@
         <v>1.27</v>
       </c>
       <c r="S87" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T87" t="n">
         <v>1.03</v>
@@ -12193,7 +12193,7 @@
         <v>1.16</v>
       </c>
       <c r="W87" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12280,16 +12280,16 @@
         <v>2.36</v>
       </c>
       <c r="G88" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="H88" t="n">
         <v>2.72</v>
       </c>
       <c r="I88" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J88" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K88" t="n">
         <v>4.2</v>
@@ -12301,16 +12301,16 @@
         <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O88" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P88" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R88" t="n">
         <v>1.47</v>
@@ -12319,16 +12319,16 @@
         <v>2.5</v>
       </c>
       <c r="T88" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="U88" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="V88" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W88" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12346,7 +12346,7 @@
         <v>1000</v>
       </c>
       <c r="AC88" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD88" t="n">
         <v>1000</v>
@@ -12358,7 +12358,7 @@
         <v>1000</v>
       </c>
       <c r="AG88" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH88" t="n">
         <v>1000</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I89" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J89" t="n">
         <v>3.2</v>
       </c>
       <c r="K89" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
@@ -12436,13 +12436,13 @@
         <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="O89" t="n">
         <v>1.28</v>
       </c>
       <c r="P89" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q89" t="n">
         <v>1.73</v>
@@ -12460,10 +12460,10 @@
         <v>1.03</v>
       </c>
       <c r="V89" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W89" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G90" t="n">
         <v>3.25</v>
       </c>
       <c r="H90" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="I90" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="J90" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K90" t="n">
         <v>4.5</v>
@@ -12568,7 +12568,7 @@
         <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N90" t="n">
         <v>2.26</v>
@@ -12583,7 +12583,7 @@
         <v>1.73</v>
       </c>
       <c r="R90" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S90" t="n">
         <v>2.84</v>
@@ -12595,7 +12595,7 @@
         <v>2.3</v>
       </c>
       <c r="V90" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="W90" t="n">
         <v>1.45</v>
@@ -12685,13 +12685,13 @@
         <v>2.28</v>
       </c>
       <c r="G91" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H91" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="I91" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J91" t="n">
         <v>3.4</v>
@@ -12730,10 +12730,10 @@
         <v>1.03</v>
       </c>
       <c r="V91" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W91" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X91" t="n">
         <v>1000</v>
@@ -12817,19 +12817,19 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G92" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H92" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I92" t="n">
         <v>11.5</v>
       </c>
       <c r="J92" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K92" t="n">
         <v>6.8</v>
@@ -12847,31 +12847,31 @@
         <v>1.16</v>
       </c>
       <c r="P92" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R92" t="n">
         <v>1.78</v>
       </c>
       <c r="S92" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T92" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U92" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V92" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W92" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y92" t="n">
         <v>46</v>
@@ -12880,13 +12880,13 @@
         <v>110</v>
       </c>
       <c r="AA92" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AB92" t="n">
         <v>12</v>
       </c>
       <c r="AC92" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD92" t="n">
         <v>38</v>
@@ -12895,7 +12895,7 @@
         <v>150</v>
       </c>
       <c r="AF92" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG92" t="n">
         <v>10.5</v>
@@ -12913,16 +12913,16 @@
         <v>12.5</v>
       </c>
       <c r="AL92" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM92" t="n">
         <v>130</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO92" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="G93" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="H93" t="n">
         <v>3.8</v>
       </c>
       <c r="I93" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K93" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -13000,10 +13000,10 @@
         <v>1.03</v>
       </c>
       <c r="V93" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W93" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13090,10 +13090,10 @@
         <v>3.15</v>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H94" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I94" t="n">
         <v>2.64</v>
@@ -13105,55 +13105,55 @@
         <v>3.3</v>
       </c>
       <c r="L94" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M94" t="n">
         <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O94" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P94" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R94" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S94" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T94" t="n">
         <v>2.02</v>
       </c>
       <c r="U94" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V94" t="n">
         <v>1.6</v>
       </c>
       <c r="W94" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X94" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y94" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z94" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA94" t="n">
         <v>40</v>
       </c>
       <c r="AB94" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC94" t="n">
         <v>7</v>
@@ -13180,7 +13180,7 @@
         <v>60</v>
       </c>
       <c r="AK94" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL94" t="n">
         <v>65</v>
@@ -13363,25 +13363,25 @@
         <v>3.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I96" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J96" t="n">
         <v>3.3</v>
       </c>
       <c r="K96" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O96" t="n">
         <v>1.35</v>
@@ -13390,13 +13390,13 @@
         <v>1.77</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R96" t="n">
         <v>1.3</v>
       </c>
       <c r="S96" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T96" t="n">
         <v>1.78</v>
@@ -13420,7 +13420,7 @@
         <v>17.5</v>
       </c>
       <c r="AA96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB96" t="n">
         <v>12</v>
@@ -13450,7 +13450,7 @@
         <v>60</v>
       </c>
       <c r="AK96" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL96" t="n">
         <v>55</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G97" t="n">
         <v>2.12</v>
@@ -13501,13 +13501,13 @@
         <v>4.1</v>
       </c>
       <c r="I97" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J97" t="n">
         <v>3.3</v>
       </c>
       <c r="K97" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L97" t="n">
         <v>1.01</v>
@@ -13516,19 +13516,19 @@
         <v>1.01</v>
       </c>
       <c r="N97" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="O97" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="P97" t="n">
         <v>1.63</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R97" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S97" t="n">
         <v>3.55</v>
@@ -13540,7 +13540,7 @@
         <v>1.03</v>
       </c>
       <c r="V97" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W97" t="n">
         <v>1.89</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H98" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I98" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J98" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K98" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L98" t="n">
         <v>1.01</v>
@@ -13651,34 +13651,34 @@
         <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="O98" t="n">
         <v>1.28</v>
       </c>
       <c r="P98" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R98" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S98" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
       <c r="T98" t="n">
         <v>1.54</v>
       </c>
       <c r="U98" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V98" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W98" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X98" t="n">
         <v>980</v>
@@ -13762,10 +13762,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G99" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H99" t="n">
         <v>3.9</v>
@@ -13774,10 +13774,10 @@
         <v>1000</v>
       </c>
       <c r="J99" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K99" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13810,10 +13810,10 @@
         <v>1.03</v>
       </c>
       <c r="V99" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W99" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X99" t="n">
         <v>1000</v>
@@ -13900,13 +13900,13 @@
         <v>2.5</v>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H100" t="n">
         <v>2.84</v>
       </c>
       <c r="I100" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J100" t="n">
         <v>3.1</v>
@@ -13915,7 +13915,7 @@
         <v>3.65</v>
       </c>
       <c r="L100" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
@@ -13933,10 +13933,10 @@
         <v>2.1</v>
       </c>
       <c r="R100" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S100" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T100" t="n">
         <v>1.03</v>
@@ -14035,19 +14035,19 @@
         <v>1.8</v>
       </c>
       <c r="G101" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H101" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I101" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J101" t="n">
         <v>3.55</v>
       </c>
       <c r="K101" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G102" t="n">
         <v>4.1</v>
@@ -14182,13 +14182,13 @@
         <v>2.96</v>
       </c>
       <c r="K102" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L102" t="n">
         <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N102" t="n">
         <v>2.56</v>
@@ -14209,10 +14209,10 @@
         <v>5.3</v>
       </c>
       <c r="T102" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U102" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V102" t="n">
         <v>1.65</v>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G103" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H103" t="n">
         <v>6.6</v>
@@ -14314,7 +14314,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K103" t="n">
         <v>4.6</v>
@@ -14326,22 +14326,22 @@
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O103" t="n">
         <v>1.34</v>
       </c>
       <c r="P103" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R103" t="n">
         <v>1.13</v>
       </c>
       <c r="S103" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T103" t="n">
         <v>1.03</v>
@@ -14350,10 +14350,10 @@
         <v>1.03</v>
       </c>
       <c r="V103" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W103" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14440,7 +14440,7 @@
         <v>3.1</v>
       </c>
       <c r="G104" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>2.4</v>
@@ -14452,7 +14452,7 @@
         <v>2.72</v>
       </c>
       <c r="K104" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
@@ -14461,22 +14461,22 @@
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O104" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P104" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R104" t="n">
         <v>1.18</v>
       </c>
       <c r="S104" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T104" t="n">
         <v>1.03</v>
@@ -14485,10 +14485,10 @@
         <v>1.03</v>
       </c>
       <c r="V104" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W104" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X104" t="n">
         <v>1000</v>
@@ -14584,7 +14584,7 @@
         <v>4.2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K105" t="n">
         <v>4</v>
@@ -14608,10 +14608,10 @@
         <v>1.46</v>
       </c>
       <c r="R105" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S105" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T105" t="n">
         <v>1.03</v>
@@ -14716,13 +14716,13 @@
         <v>2.28</v>
       </c>
       <c r="I106" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="J106" t="n">
         <v>3.45</v>
       </c>
       <c r="K106" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L106" t="n">
         <v>1.01</v>
@@ -14731,22 +14731,22 @@
         <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="O106" t="n">
         <v>1.31</v>
       </c>
       <c r="P106" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R106" t="n">
         <v>1.18</v>
       </c>
       <c r="S106" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T106" t="n">
         <v>1.03</v>
@@ -14755,7 +14755,7 @@
         <v>1.03</v>
       </c>
       <c r="V106" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="W106" t="n">
         <v>1.41</v>
@@ -14845,10 +14845,10 @@
         <v>1.31</v>
       </c>
       <c r="G107" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H107" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="I107" t="n">
         <v>13</v>
@@ -14857,7 +14857,7 @@
         <v>5.2</v>
       </c>
       <c r="K107" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L107" t="n">
         <v>1.17</v>
@@ -14866,7 +14866,7 @@
         <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>1.11</v>
+        <v>3.05</v>
       </c>
       <c r="O107" t="n">
         <v>1.08</v>
@@ -14875,25 +14875,25 @@
         <v>3.05</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="R107" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S107" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="T107" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U107" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V107" t="n">
         <v>1.09</v>
       </c>
       <c r="W107" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14902,22 +14902,22 @@
         <v>1000</v>
       </c>
       <c r="Z107" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE107" t="n">
         <v>150</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>170</v>
       </c>
       <c r="AF107" t="n">
         <v>13.5</v>
@@ -14926,10 +14926,10 @@
         <v>14</v>
       </c>
       <c r="AH107" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI107" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ107" t="n">
         <v>13</v>
@@ -14938,10 +14938,10 @@
         <v>15</v>
       </c>
       <c r="AL107" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM107" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN107" t="n">
         <v>3.3</v>
@@ -14977,16 +14977,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G108" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H108" t="n">
         <v>4.3</v>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J108" t="n">
         <v>3.2</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="G109" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="H109" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I109" t="n">
         <v>10.5</v>
       </c>
       <c r="J109" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K109" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15247,19 +15247,19 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H110" t="n">
         <v>2.48</v>
       </c>
       <c r="I110" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="J110" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K110" t="n">
         <v>4</v>
@@ -15271,7 +15271,7 @@
         <v>1.04</v>
       </c>
       <c r="N110" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O110" t="n">
         <v>1.21</v>
@@ -15280,16 +15280,16 @@
         <v>2.32</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R110" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S110" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="T110" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U110" t="n">
         <v>2.42</v>
@@ -15304,16 +15304,16 @@
         <v>26</v>
       </c>
       <c r="Y110" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA110" t="n">
         <v>44</v>
       </c>
       <c r="AB110" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC110" t="n">
         <v>11.5</v>
@@ -15325,7 +15325,7 @@
         <v>30</v>
       </c>
       <c r="AF110" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG110" t="n">
         <v>16</v>
@@ -15334,22 +15334,22 @@
         <v>18.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ110" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK110" t="n">
         <v>34</v>
       </c>
       <c r="AL110" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM110" t="n">
         <v>75</v>
       </c>
       <c r="AN110" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO110" t="n">
         <v>19</v>
@@ -15385,10 +15385,10 @@
         <v>2.06</v>
       </c>
       <c r="G111" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I111" t="n">
         <v>5.3</v>
@@ -15409,13 +15409,13 @@
         <v>1.63</v>
       </c>
       <c r="O111" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P111" t="n">
         <v>1.62</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="R111" t="n">
         <v>1.17</v>
@@ -15430,10 +15430,10 @@
         <v>1.03</v>
       </c>
       <c r="V111" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W111" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="X111" t="n">
         <v>980</v>
@@ -15517,10 +15517,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H112" t="n">
         <v>4.7</v>
@@ -15541,13 +15541,13 @@
         <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O112" t="n">
         <v>1.35</v>
       </c>
       <c r="P112" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q112" t="n">
         <v>1.96</v>
@@ -15565,10 +15565,10 @@
         <v>1.03</v>
       </c>
       <c r="V112" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W112" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-17.xlsx
@@ -673,13 +673,13 @@
         <v>2.72</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -688,22 +688,22 @@
         <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S2" t="n">
         <v>2.36</v>
@@ -712,7 +712,7 @@
         <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
         <v>1.58</v>
@@ -721,7 +721,7 @@
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
         <v>18</v>
@@ -733,10 +733,10 @@
         <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
@@ -751,10 +751,10 @@
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
@@ -763,13 +763,13 @@
         <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
         <v>14</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.23</v>
@@ -826,52 +826,52 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="W3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -880,13 +880,13 @@
         <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -895,19 +895,19 @@
         <v>170</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1078,19 +1078,19 @@
         <v>1.66</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,22 +1099,22 @@
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
@@ -1129,28 +1129,28 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
         <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1159,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AJ5" t="n">
         <v>16</v>
@@ -1168,10 +1168,10 @@
         <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
         <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I6" t="n">
         <v>3.05</v>
@@ -1237,10 +1237,10 @@
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
         <v>1.66</v>
@@ -1252,13 +1252,13 @@
         <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
         <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X6" t="n">
         <v>24</v>
@@ -1270,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
         <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
@@ -1411,13 +1411,13 @@
         <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.02</v>
+        <v>9.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.22</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.1</v>
       </c>
       <c r="P8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.06</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="9">
@@ -1630,31 +1630,31 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O9" t="n">
         <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U9" t="n">
         <v>1.71</v>
@@ -1666,7 +1666,7 @@
         <v>8.4</v>
       </c>
       <c r="X9" t="n">
-        <v>840</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>980</v>
@@ -1684,37 +1684,37 @@
         <v>48</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AF9" t="n">
         <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AI9" t="n">
         <v>340</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>7.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>1.48</v>
@@ -1771,40 +1771,40 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
         <v>1.14</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>10</v>
@@ -1813,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="AB10" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
@@ -1822,37 +1822,37 @@
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
@@ -1882,94 +1882,94 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.02</v>
+        <v>6.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>1.54</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>1.29</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>1.21</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="L12" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="P12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.35</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2098,13 +2098,13 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2113,10 +2113,10 @@
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="G13" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>870</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.64</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>2.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.05</v>
+        <v>5.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>2.62</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="V13" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>2.98</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.11</v>
+        <v>1.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.05</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2335,13 +2335,13 @@
         <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="I15" t="n">
-        <v>980</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,88 +2446,88 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
         <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>5.3</v>
       </c>
       <c r="G16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
         <v>1.47</v>
       </c>
       <c r="I16" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="J16" t="n">
         <v>3.35</v>
@@ -2581,13 +2581,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.11</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
         <v>1.92</v>
@@ -2596,7 +2596,7 @@
         <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,7 +2605,7 @@
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="W16" t="n">
         <v>1.04</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="G17" t="n">
         <v>2.4</v>
@@ -2701,7 +2701,7 @@
         <v>2.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="I18" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
@@ -2866,22 +2866,22 @@
         <v>1.45</v>
       </c>
       <c r="S18" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="T18" t="n">
         <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="W18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
@@ -2890,16 +2890,16 @@
         <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2920,19 +2920,19 @@
         <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
         <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -3013,25 +3013,25 @@
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
         <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3040,13 +3040,13 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3055,7 +3055,7 @@
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
         <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.31</v>
@@ -3121,22 +3121,22 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>1.81</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="T20" t="n">
         <v>1.04</v>
@@ -3145,13 +3145,13 @@
         <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
         <v>42</v>
@@ -3178,7 +3178,7 @@
         <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,19 +3235,19 @@
         <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="H21" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
@@ -3262,16 +3262,16 @@
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3280,10 +3280,10 @@
         <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3424,10 +3424,10 @@
         <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AA22" t="n">
         <v>360</v>
@@ -3439,7 +3439,7 @@
         <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="n">
         <v>170</v>
@@ -3454,19 +3454,19 @@
         <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="AJ22" t="n">
         <v>14.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="AN22" t="n">
         <v>7.8</v>
@@ -3505,7 +3505,7 @@
         <v>2.36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
@@ -3517,7 +3517,7 @@
         <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3529,10 +3529,10 @@
         <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
         <v>1.78</v>
@@ -3544,31 +3544,31 @@
         <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
         <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>8.4</v>
@@ -3577,10 +3577,10 @@
         <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
@@ -3592,7 +3592,7 @@
         <v>980</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
         <v>25</v>
@@ -3601,10 +3601,10 @@
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
         <v>980</v>
@@ -3640,7 +3640,7 @@
         <v>2.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -3670,16 +3670,16 @@
         <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
         <v>2.24</v>
@@ -3694,7 +3694,7 @@
         <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
         <v>36</v>
@@ -3712,7 +3712,7 @@
         <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
         <v>18</v>
@@ -3721,16 +3721,16 @@
         <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
         <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>40</v>
@@ -3742,7 +3742,7 @@
         <v>16</v>
       </c>
       <c r="AO24" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -3781,7 +3781,7 @@
         <v>9.4</v>
       </c>
       <c r="I25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
         <v>5.6</v>
@@ -3826,7 +3826,7 @@
         <v>3.85</v>
       </c>
       <c r="X25" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y25" t="n">
         <v>980</v>
@@ -3850,7 +3850,7 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3862,7 +3862,7 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H26" t="n">
         <v>2.64</v>
       </c>
       <c r="I26" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
@@ -4063,7 +4063,7 @@
         <v>1.32</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
         <v>3.4</v>
@@ -4078,43 +4078,43 @@
         <v>1.84</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X27" t="n">
         <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4201,19 +4201,19 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Q28" t="n">
         <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
         <v>1.81</v>
@@ -4246,7 +4246,7 @@
         <v>980</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
         <v>980</v>
@@ -4381,7 +4381,7 @@
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -4471,16 +4471,16 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
         <v>2.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R30" t="n">
         <v>1.53</v>
@@ -4489,67 +4489,67 @@
         <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>2.48</v>
       </c>
       <c r="V30" t="n">
         <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
         <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4618,7 +4618,7 @@
         <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S31" t="n">
         <v>2.7</v>
@@ -4627,19 +4627,19 @@
         <v>1.65</v>
       </c>
       <c r="U31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
         <v>19.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="n">
         <v>34</v>
@@ -4669,7 +4669,7 @@
         <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AJ31" t="n">
         <v>23</v>
@@ -4687,7 +4687,7 @@
         <v>10.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -4732,7 +4732,7 @@
         <v>3.95</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>1.33</v>
@@ -4741,13 +4741,13 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O32" t="n">
         <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q32" t="n">
         <v>1.69</v>
@@ -4756,7 +4756,7 @@
         <v>1.53</v>
       </c>
       <c r="S32" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
@@ -4816,7 +4816,7 @@
         <v>29</v>
       </c>
       <c r="AM32" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
         <v>12.5</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
         <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.31</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S33" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T33" t="n">
         <v>1.03</v>
@@ -4900,10 +4900,10 @@
         <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4990,16 +4990,16 @@
         <v>2.52</v>
       </c>
       <c r="G34" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="H34" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
@@ -5035,10 +5035,10 @@
         <v>1.03</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W34" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5056,7 +5056,7 @@
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H35" t="n">
         <v>3.75</v>
@@ -5173,10 +5173,10 @@
         <v>1.31</v>
       </c>
       <c r="W35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y35" t="n">
         <v>9.6</v>
@@ -5194,7 +5194,7 @@
         <v>7.2</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
@@ -5203,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AG35" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5212,7 +5212,7 @@
         <v>140</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
         <v>2.02</v>
@@ -5269,7 +5269,7 @@
         <v>5.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
         <v>3.3</v>
@@ -5281,7 +5281,7 @@
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O36" t="n">
         <v>1.56</v>
@@ -5311,7 +5311,7 @@
         <v>1.98</v>
       </c>
       <c r="X36" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>13.5</v>
@@ -5326,31 +5326,31 @@
         <v>6.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G37" t="n">
         <v>6.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I37" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J37" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
         <v>4.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="T37" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W37" t="n">
         <v>1.18</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA37" t="n">
         <v>16.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
         <v>10</v>
       </c>
       <c r="AE37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF37" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AG37" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK37" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AL37" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AO37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -5539,7 +5539,7 @@
         <v>2.04</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K38" t="n">
         <v>4.6</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="G39" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="H39" t="n">
         <v>5.4</v>
       </c>
       <c r="I39" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="J39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,22 +5686,22 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
         <v>1.23</v>
       </c>
       <c r="P39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
         <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="T39" t="n">
         <v>1.03</v>
@@ -5710,10 +5710,10 @@
         <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W39" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5731,7 +5731,7 @@
         <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G40" t="n">
         <v>1.48</v>
       </c>
       <c r="H40" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I40" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J40" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
         <v>5.8</v>
@@ -5857,7 +5857,7 @@
         <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="AA40" t="n">
         <v>240</v>
@@ -5869,10 +5869,10 @@
         <v>15</v>
       </c>
       <c r="AD40" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="n">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="AF40" t="n">
         <v>10.5</v>
@@ -5884,25 +5884,25 @@
         <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="AJ40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK40" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM40" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="AN40" t="n">
         <v>5.1</v>
       </c>
       <c r="AO40" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
         <v>2.06</v>
@@ -5941,16 +5941,16 @@
         <v>4.5</v>
       </c>
       <c r="I41" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
@@ -5980,7 +5980,7 @@
         <v>1.48</v>
       </c>
       <c r="V41" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W41" t="n">
         <v>1.94</v>
@@ -5995,7 +5995,7 @@
         <v>50</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB41" t="n">
         <v>9.199999999999999</v>
@@ -6007,7 +6007,7 @@
         <v>30</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="n">
         <v>15.5</v>
@@ -6019,7 +6019,7 @@
         <v>38</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ41" t="n">
         <v>38</v>
@@ -6028,7 +6028,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="G42" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H42" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I42" t="n">
         <v>1000</v>
@@ -6082,7 +6082,7 @@
         <v>2.92</v>
       </c>
       <c r="K42" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>1.52</v>
@@ -6100,13 +6100,13 @@
         <v>1.39</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R42" t="n">
         <v>1.13</v>
       </c>
       <c r="S42" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T42" t="n">
         <v>1.03</v>
@@ -6118,7 +6118,7 @@
         <v>1.12</v>
       </c>
       <c r="W42" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6136,7 +6136,7 @@
         <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6205,19 +6205,19 @@
         <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="I43" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="J43" t="n">
         <v>3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6235,25 +6235,25 @@
         <v>2.02</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R43" t="n">
         <v>1.39</v>
       </c>
       <c r="S43" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T43" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="U43" t="n">
         <v>1.03</v>
       </c>
       <c r="V43" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="W43" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6355,7 +6355,7 @@
         <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -6370,7 +6370,7 @@
         <v>1.76</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
@@ -6406,7 +6406,7 @@
         <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G45" t="n">
         <v>2.68</v>
       </c>
       <c r="H45" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I45" t="n">
         <v>3.35</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L45" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M45" t="n">
         <v>1.09</v>
@@ -6505,13 +6505,13 @@
         <v>1.78</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R45" t="n">
         <v>1.29</v>
       </c>
       <c r="S45" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T45" t="n">
         <v>1.84</v>
@@ -6526,7 +6526,7 @@
         <v>1.5</v>
       </c>
       <c r="X45" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y45" t="n">
         <v>11.5</v>
@@ -6535,7 +6535,7 @@
         <v>23</v>
       </c>
       <c r="AA45" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB45" t="n">
         <v>10.5</v>
@@ -6547,7 +6547,7 @@
         <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AF45" t="n">
         <v>18</v>
@@ -6559,7 +6559,7 @@
         <v>18</v>
       </c>
       <c r="AI45" t="n">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="AJ45" t="n">
         <v>38</v>
@@ -6568,13 +6568,13 @@
         <v>32</v>
       </c>
       <c r="AL45" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AM45" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AO45" t="n">
         <v>980</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G46" t="n">
         <v>1.65</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I46" t="n">
         <v>10.5</v>
@@ -6640,13 +6640,13 @@
         <v>1.73</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R46" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T46" t="n">
         <v>1.03</v>
@@ -6676,7 +6676,7 @@
         <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6709,7 +6709,7 @@
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,64 +6742,64 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G47" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>1.75</v>
+        <v>3.15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W47" t="n">
         <v>2.1</v>
       </c>
-      <c r="R47" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X47" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z47" t="n">
         <v>44</v>
@@ -6808,43 +6808,43 @@
         <v>160</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF47" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI47" t="n">
         <v>110</v>
       </c>
       <c r="AJ47" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM47" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AO47" t="n">
         <v>130</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G48" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H48" t="n">
         <v>3.85</v>
@@ -6901,16 +6901,16 @@
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>1.72</v>
+        <v>1.11</v>
       </c>
       <c r="O48" t="n">
         <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>1.72</v>
+        <v>1.27</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="R48" t="n">
         <v>1.26</v>
@@ -6928,58 +6928,58 @@
         <v>1.3</v>
       </c>
       <c r="W48" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X48" t="n">
         <v>960</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC48" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE48" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK48" t="n">
         <v>75</v>
       </c>
-      <c r="AF48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>980</v>
-      </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
         <v>240</v>
@@ -7015,10 +7015,10 @@
         <v>1.85</v>
       </c>
       <c r="G49" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I49" t="n">
         <v>4.9</v>
@@ -7042,13 +7042,13 @@
         <v>1.32</v>
       </c>
       <c r="P49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R49" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S49" t="n">
         <v>3.45</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H50" t="n">
         <v>3.85</v>
       </c>
       <c r="I50" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
@@ -7186,7 +7186,7 @@
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T50" t="n">
         <v>1.03</v>
@@ -7216,7 +7216,7 @@
         <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD50" t="n">
         <v>1000</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G51" t="n">
         <v>2.08</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I51" t="n">
         <v>5.6</v>
@@ -7297,10 +7297,10 @@
         <v>2.92</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="L51" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
@@ -7318,10 +7318,10 @@
         <v>2.24</v>
       </c>
       <c r="R51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T51" t="n">
         <v>1.04</v>
@@ -7351,7 +7351,7 @@
         <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD51" t="n">
         <v>1000</v>
@@ -7423,16 +7423,16 @@
         <v>1.96</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K52" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>1.58</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="G53" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J53" t="n">
         <v>4.5</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>5.3</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,88 +7576,88 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="Q53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R53" t="n">
         <v>1.18</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.23</v>
       </c>
       <c r="S53" t="n">
         <v>1.05</v>
       </c>
       <c r="T53" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U53" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V53" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W53" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -7690,16 +7690,16 @@
         <v>3.45</v>
       </c>
       <c r="G54" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J54" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K54" t="n">
         <v>3.75</v>
@@ -7711,40 +7711,40 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.27</v>
       </c>
       <c r="P54" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="R54" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S54" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U54" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V54" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W54" t="n">
         <v>1.37</v>
       </c>
       <c r="X54" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z54" t="n">
         <v>980</v>
@@ -7756,10 +7756,10 @@
         <v>980</v>
       </c>
       <c r="AC54" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD54" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE54" t="n">
         <v>29</v>
@@ -7774,10 +7774,10 @@
         <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ54" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AK54" t="n">
         <v>980</v>
@@ -7786,13 +7786,13 @@
         <v>980</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN54" t="n">
         <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I55" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="J55" t="n">
         <v>3.05</v>
@@ -7855,7 +7855,7 @@
         <v>1.65</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R55" t="n">
         <v>1.23</v>
@@ -7864,22 +7864,22 @@
         <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U55" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V55" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W55" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X55" t="n">
         <v>19.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z55" t="n">
         <v>980</v>
@@ -7888,13 +7888,13 @@
         <v>980</v>
       </c>
       <c r="AB55" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AC55" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE55" t="n">
         <v>980</v>
@@ -7906,10 +7906,10 @@
         <v>980</v>
       </c>
       <c r="AH55" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI55" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ55" t="n">
         <v>1000</v>
@@ -7918,10 +7918,10 @@
         <v>980</v>
       </c>
       <c r="AL55" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM55" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN55" t="n">
         <v>1000</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G56" t="n">
         <v>3.15</v>
       </c>
       <c r="H56" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I56" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J56" t="n">
         <v>3.15</v>
       </c>
       <c r="K56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -8005,7 +8005,7 @@
         <v>1.73</v>
       </c>
       <c r="V56" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W56" t="n">
         <v>1.47</v>
@@ -8029,19 +8029,19 @@
         <v>7.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
@@ -8056,7 +8056,7 @@
         <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN56" t="n">
         <v>1000</v>
@@ -8095,19 +8095,19 @@
         <v>1.86</v>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I57" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J57" t="n">
         <v>3.65</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L57" t="n">
         <v>1.47</v>
@@ -8119,13 +8119,13 @@
         <v>3.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R57" t="n">
         <v>1.25</v>
@@ -8143,7 +8143,7 @@
         <v>1.23</v>
       </c>
       <c r="W57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X57" t="n">
         <v>11.5</v>
@@ -8152,7 +8152,7 @@
         <v>15.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="n">
         <v>150</v>
@@ -8188,13 +8188,13 @@
         <v>24</v>
       </c>
       <c r="AL57" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AM57" t="n">
         <v>200</v>
       </c>
       <c r="AN57" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AO57" t="n">
         <v>120</v>
@@ -8233,7 +8233,7 @@
         <v>2.96</v>
       </c>
       <c r="H58" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I58" t="n">
         <v>3.1</v>
@@ -8257,10 +8257,10 @@
         <v>1.46</v>
       </c>
       <c r="P58" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R58" t="n">
         <v>1.22</v>
@@ -8275,7 +8275,7 @@
         <v>1.86</v>
       </c>
       <c r="V58" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W58" t="n">
         <v>1.51</v>
@@ -8287,10 +8287,10 @@
         <v>9.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA58" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="AB58" t="n">
         <v>11</v>
@@ -8299,34 +8299,34 @@
         <v>7.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AE58" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF58" t="n">
         <v>22</v>
       </c>
       <c r="AG58" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI58" t="n">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="AJ58" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AK58" t="n">
         <v>980</v>
       </c>
       <c r="AL58" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AM58" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN58" t="n">
         <v>1000</v>
@@ -8365,7 +8365,7 @@
         <v>2.5</v>
       </c>
       <c r="G59" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H59" t="n">
         <v>2.9</v>
@@ -8398,7 +8398,7 @@
         <v>1.77</v>
       </c>
       <c r="R59" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S59" t="n">
         <v>2.92</v>
@@ -8425,7 +8425,7 @@
         <v>21</v>
       </c>
       <c r="AA59" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB59" t="n">
         <v>13</v>
@@ -8449,25 +8449,25 @@
         <v>16</v>
       </c>
       <c r="AI59" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ59" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AK59" t="n">
         <v>26</v>
       </c>
       <c r="AL59" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM59" t="n">
         <v>75</v>
       </c>
       <c r="AN59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G60" t="n">
         <v>2.66</v>
       </c>
       <c r="H60" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I60" t="n">
         <v>2.78</v>
@@ -8527,13 +8527,13 @@
         <v>1.16</v>
       </c>
       <c r="P60" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R60" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S60" t="n">
         <v>2.22</v>
@@ -8551,37 +8551,37 @@
         <v>1.6</v>
       </c>
       <c r="X60" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y60" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z60" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA60" t="n">
         <v>980</v>
       </c>
       <c r="AB60" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD60" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF60" t="n">
         <v>980</v>
       </c>
       <c r="AG60" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH60" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI60" t="n">
         <v>980</v>
@@ -8590,19 +8590,19 @@
         <v>980</v>
       </c>
       <c r="AK60" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AL60" t="n">
         <v>980</v>
       </c>
       <c r="AM60" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AO60" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
@@ -8641,10 +8641,10 @@
         <v>3.35</v>
       </c>
       <c r="I61" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K61" t="n">
         <v>3.8</v>
@@ -8653,31 +8653,31 @@
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
         <v>4.7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R61" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S61" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T61" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U61" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V61" t="n">
         <v>1.38</v>
@@ -8686,37 +8686,37 @@
         <v>1.78</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC61" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE61" t="n">
         <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI61" t="n">
         <v>1000</v>
@@ -8725,16 +8725,16 @@
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL61" t="n">
         <v>1000</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G62" t="n">
         <v>1.28</v>
@@ -8776,13 +8776,13 @@
         <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J62" t="n">
         <v>6.8</v>
       </c>
       <c r="K62" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="L62" t="n">
         <v>1.06</v>
@@ -8824,7 +8824,7 @@
         <v>980</v>
       </c>
       <c r="Y62" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="Z62" t="n">
         <v>180</v>
@@ -8839,7 +8839,7 @@
         <v>17.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AE62" t="n">
         <v>240</v>
@@ -8854,19 +8854,19 @@
         <v>980</v>
       </c>
       <c r="AI62" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="AJ62" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK62" t="n">
         <v>14</v>
       </c>
       <c r="AL62" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM62" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AN62" t="n">
         <v>3.5</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G63" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H63" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J63" t="n">
         <v>4</v>
@@ -8926,31 +8926,31 @@
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>1.11</v>
+        <v>3.05</v>
       </c>
       <c r="O63" t="n">
         <v>1.09</v>
       </c>
       <c r="P63" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R63" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="S63" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T63" t="n">
         <v>1.04</v>
       </c>
       <c r="U63" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W63" t="n">
         <v>1.6</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>2.08</v>
@@ -9052,7 +9052,7 @@
         <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9067,19 +9067,19 @@
         <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R64" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S64" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T64" t="n">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="U64" t="n">
         <v>1.03</v>
@@ -9088,7 +9088,7 @@
         <v>1.34</v>
       </c>
       <c r="W64" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9100,7 +9100,7 @@
         <v>1000</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB64" t="n">
         <v>1000</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G65" t="n">
         <v>3.05</v>
@@ -9208,28 +9208,28 @@
         <v>1.51</v>
       </c>
       <c r="R65" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S65" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T65" t="n">
         <v>1.48</v>
       </c>
       <c r="U65" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V65" t="n">
         <v>1.64</v>
       </c>
       <c r="W65" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X65" t="n">
         <v>29</v>
       </c>
       <c r="Y65" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z65" t="n">
         <v>22</v>
@@ -9259,25 +9259,25 @@
         <v>15</v>
       </c>
       <c r="AI65" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AJ65" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AK65" t="n">
         <v>27</v>
       </c>
       <c r="AL65" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM65" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AN65" t="n">
         <v>15</v>
       </c>
       <c r="AO65" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="66">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G66" t="n">
         <v>2.4</v>
@@ -9331,13 +9331,13 @@
         <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O66" t="n">
         <v>1.23</v>
       </c>
       <c r="P66" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q66" t="n">
         <v>1.67</v>
@@ -9352,7 +9352,7 @@
         <v>1.59</v>
       </c>
       <c r="U66" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V66" t="n">
         <v>1.42</v>
@@ -9364,13 +9364,13 @@
         <v>40</v>
       </c>
       <c r="Y66" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z66" t="n">
         <v>980</v>
       </c>
       <c r="AA66" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB66" t="n">
         <v>980</v>
@@ -9385,7 +9385,7 @@
         <v>980</v>
       </c>
       <c r="AF66" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG66" t="n">
         <v>980</v>
@@ -9406,10 +9406,10 @@
         <v>980</v>
       </c>
       <c r="AM66" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN66" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AO66" t="n">
         <v>1000</v>
@@ -9445,7 +9445,7 @@
         <v>1.84</v>
       </c>
       <c r="G67" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
@@ -9454,61 +9454,61 @@
         <v>5.2</v>
       </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K67" t="n">
         <v>3.95</v>
       </c>
       <c r="L67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R67" t="n">
         <v>1.4</v>
       </c>
-      <c r="M67" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S67" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T67" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="U67" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V67" t="n">
         <v>1.24</v>
       </c>
       <c r="W67" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X67" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z67" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA67" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="AB67" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC67" t="n">
         <v>8.800000000000001</v>
@@ -9526,25 +9526,25 @@
         <v>11</v>
       </c>
       <c r="AH67" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI67" t="n">
         <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK67" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM67" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN67" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO67" t="n">
         <v>1000</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G68" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
         <v>3.35</v>
       </c>
       <c r="I68" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K68" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L68" t="n">
         <v>1.42</v>
@@ -9601,7 +9601,7 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O68" t="n">
         <v>1.01</v>
@@ -9625,13 +9625,13 @@
         <v>1.03</v>
       </c>
       <c r="V68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W68" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X68" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="Y68" t="n">
         <v>1000</v>
@@ -9649,16 +9649,16 @@
         <v>14</v>
       </c>
       <c r="AD68" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE68" t="n">
         <v>1000</v>
       </c>
       <c r="AF68" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH68" t="n">
         <v>1000</v>
@@ -9670,7 +9670,7 @@
         <v>1000</v>
       </c>
       <c r="AK68" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL68" t="n">
         <v>1000</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="I70" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="J70" t="n">
         <v>2.92</v>
@@ -9865,7 +9865,7 @@
         <v>3.3</v>
       </c>
       <c r="L70" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M70" t="n">
         <v>1.12</v>
@@ -9889,16 +9889,16 @@
         <v>5.3</v>
       </c>
       <c r="T70" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U70" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V70" t="n">
         <v>1.64</v>
       </c>
       <c r="W70" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X70" t="n">
         <v>8.800000000000001</v>
@@ -9907,13 +9907,13 @@
         <v>7.8</v>
       </c>
       <c r="Z70" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB70" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC70" t="n">
         <v>7.4</v>
@@ -9925,16 +9925,16 @@
         <v>38</v>
       </c>
       <c r="AF70" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AG70" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ70" t="n">
         <v>1000</v>
@@ -9952,7 +9952,7 @@
         <v>1000</v>
       </c>
       <c r="AO70" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G71" t="n">
         <v>1.87</v>
@@ -10039,10 +10039,10 @@
         <v>23</v>
       </c>
       <c r="Y71" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z71" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
@@ -10051,10 +10051,10 @@
         <v>12</v>
       </c>
       <c r="AC71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD71" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AE71" t="n">
         <v>70</v>
@@ -10066,7 +10066,7 @@
         <v>12.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI71" t="n">
         <v>70</v>
@@ -10081,13 +10081,13 @@
         <v>38</v>
       </c>
       <c r="AM71" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN71" t="n">
         <v>11.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -10120,13 +10120,13 @@
         <v>2.26</v>
       </c>
       <c r="G72" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I72" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.55</v>
       </c>
       <c r="J72" t="n">
         <v>3.65</v>
@@ -10147,31 +10147,31 @@
         <v>1.28</v>
       </c>
       <c r="P72" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R72" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S72" t="n">
         <v>3.1</v>
       </c>
       <c r="T72" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U72" t="n">
         <v>2.34</v>
       </c>
       <c r="V72" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W72" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X72" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y72" t="n">
         <v>15</v>
@@ -10264,7 +10264,7 @@
         <v>3.55</v>
       </c>
       <c r="J73" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K73" t="n">
         <v>3.3</v>
@@ -10276,10 +10276,10 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="O73" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="P73" t="n">
         <v>1.41</v>
@@ -10309,37 +10309,37 @@
         <v>9</v>
       </c>
       <c r="Y73" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z73" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA73" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB73" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC73" t="n">
         <v>7.4</v>
       </c>
       <c r="AD73" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF73" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE73" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>20</v>
-      </c>
       <c r="AG73" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH73" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ73" t="n">
         <v>60</v>
@@ -10390,7 +10390,7 @@
         <v>1.93</v>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H74" t="n">
         <v>3.85</v>
@@ -10405,13 +10405,13 @@
         <v>4.1</v>
       </c>
       <c r="L74" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O74" t="n">
         <v>1.28</v>
@@ -10438,7 +10438,7 @@
         <v>1.3</v>
       </c>
       <c r="W74" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X74" t="n">
         <v>18</v>
@@ -10447,7 +10447,7 @@
         <v>16.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA74" t="n">
         <v>85</v>
@@ -10459,7 +10459,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD74" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE74" t="n">
         <v>980</v>
@@ -10474,13 +10474,13 @@
         <v>18</v>
       </c>
       <c r="AI74" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ74" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK74" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL74" t="n">
         <v>980</v>
@@ -10489,7 +10489,7 @@
         <v>200</v>
       </c>
       <c r="AN74" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO74" t="n">
         <v>980</v>
@@ -10522,28 +10522,28 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G75" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H75" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J75" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L75" t="n">
         <v>1.6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N75" t="n">
         <v>2.44</v>
@@ -10552,10 +10552,10 @@
         <v>1.63</v>
       </c>
       <c r="P75" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="R75" t="n">
         <v>1.17</v>
@@ -10564,37 +10564,37 @@
         <v>6.2</v>
       </c>
       <c r="T75" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U75" t="n">
         <v>1.72</v>
       </c>
       <c r="V75" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W75" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X75" t="n">
         <v>7.8</v>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z75" t="n">
         <v>22</v>
       </c>
       <c r="AA75" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB75" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC75" t="n">
         <v>7.2</v>
       </c>
       <c r="AD75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE75" t="n">
         <v>60</v>
@@ -10606,10 +10606,10 @@
         <v>14</v>
       </c>
       <c r="AH75" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI75" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ75" t="n">
         <v>46</v>
@@ -10618,7 +10618,7 @@
         <v>44</v>
       </c>
       <c r="AL75" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="n">
         <v>230</v>
@@ -10627,7 +10627,7 @@
         <v>55</v>
       </c>
       <c r="AO75" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -10669,19 +10669,19 @@
         <v>2.44</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M76" t="n">
         <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>1.86</v>
+        <v>2.82</v>
       </c>
       <c r="O76" t="n">
         <v>1.32</v>
@@ -10696,7 +10696,7 @@
         <v>1.27</v>
       </c>
       <c r="S76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T76" t="n">
         <v>1.62</v>
@@ -10705,7 +10705,7 @@
         <v>1.89</v>
       </c>
       <c r="V76" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W76" t="n">
         <v>1.37</v>
@@ -10741,7 +10741,7 @@
         <v>17.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AI76" t="n">
         <v>1000</v>
@@ -10756,7 +10756,7 @@
         <v>1000</v>
       </c>
       <c r="AM76" t="n">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="AN76" t="n">
         <v>1000</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="G77" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H77" t="n">
         <v>2.86</v>
       </c>
-      <c r="H77" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I77" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
         <v>3.1</v>
@@ -10840,10 +10840,10 @@
         <v>1.92</v>
       </c>
       <c r="V77" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X77" t="n">
         <v>11</v>
@@ -10852,7 +10852,7 @@
         <v>10.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA77" t="n">
         <v>340</v>
@@ -10867,7 +10867,7 @@
         <v>14</v>
       </c>
       <c r="AE77" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AF77" t="n">
         <v>17.5</v>
@@ -10891,7 +10891,7 @@
         <v>200</v>
       </c>
       <c r="AM77" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="AN77" t="n">
         <v>1000</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G78" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H78" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I78" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K78" t="n">
         <v>5</v>
@@ -10948,55 +10948,55 @@
         <v>1.01</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O78" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R78" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S78" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T78" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="U78" t="n">
         <v>1.77</v>
       </c>
       <c r="V78" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W78" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="X78" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y78" t="n">
         <v>980</v>
       </c>
       <c r="Z78" t="n">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AA78" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB78" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC78" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD78" t="n">
         <v>980</v>
@@ -11005,31 +11005,31 @@
         <v>140</v>
       </c>
       <c r="AF78" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG78" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AH78" t="n">
         <v>980</v>
       </c>
       <c r="AI78" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="AJ78" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN78" t="n">
         <v>15</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>8</v>
       </c>
       <c r="AO78" t="n">
         <v>200</v>
@@ -11068,7 +11068,7 @@
         <v>3.4</v>
       </c>
       <c r="H79" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I79" t="n">
         <v>2.56</v>
@@ -11092,7 +11092,7 @@
         <v>1.32</v>
       </c>
       <c r="P79" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q79" t="n">
         <v>1.97</v>
@@ -11113,7 +11113,7 @@
         <v>1.64</v>
       </c>
       <c r="W79" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X79" t="n">
         <v>14.5</v>
@@ -11125,7 +11125,7 @@
         <v>17</v>
       </c>
       <c r="AA79" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB79" t="n">
         <v>13</v>
@@ -11137,7 +11137,7 @@
         <v>12</v>
       </c>
       <c r="AE79" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF79" t="n">
         <v>24</v>
@@ -11149,25 +11149,25 @@
         <v>18</v>
       </c>
       <c r="AI79" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ79" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AK79" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL79" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AM79" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN79" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -11206,7 +11206,7 @@
         <v>4.6</v>
       </c>
       <c r="I80" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J80" t="n">
         <v>3.65</v>
@@ -11221,22 +11221,22 @@
         <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O80" t="n">
         <v>1.35</v>
       </c>
       <c r="P80" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="R80" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S80" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T80" t="n">
         <v>1.03</v>
@@ -11266,7 +11266,7 @@
         <v>1000</v>
       </c>
       <c r="AC80" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD80" t="n">
         <v>1000</v>
@@ -11296,7 +11296,7 @@
         <v>1000</v>
       </c>
       <c r="AM80" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN80" t="n">
         <v>1000</v>
@@ -11344,10 +11344,10 @@
         <v>2.94</v>
       </c>
       <c r="J81" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K81" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11356,13 +11356,13 @@
         <v>1.12</v>
       </c>
       <c r="N81" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O81" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P81" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q81" t="n">
         <v>2.8</v>
@@ -11371,13 +11371,13 @@
         <v>1.18</v>
       </c>
       <c r="S81" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T81" t="n">
         <v>2.12</v>
       </c>
       <c r="U81" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V81" t="n">
         <v>1.52</v>
@@ -11386,7 +11386,7 @@
         <v>1.41</v>
       </c>
       <c r="X81" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Y81" t="n">
         <v>9.4</v>
@@ -11395,19 +11395,19 @@
         <v>21</v>
       </c>
       <c r="AA81" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AB81" t="n">
         <v>10.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD81" t="n">
         <v>17</v>
       </c>
       <c r="AE81" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF81" t="n">
         <v>25</v>
@@ -11416,7 +11416,7 @@
         <v>18.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="n">
         <v>1000</v>
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G82" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H82" t="n">
         <v>2.76</v>
       </c>
       <c r="I82" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J82" t="n">
         <v>3.35</v>
@@ -11497,10 +11497,10 @@
         <v>1.23</v>
       </c>
       <c r="P82" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R82" t="n">
         <v>1.47</v>
@@ -11509,7 +11509,7 @@
         <v>2.54</v>
       </c>
       <c r="T82" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U82" t="n">
         <v>2.34</v>
@@ -11518,13 +11518,13 @@
         <v>1.43</v>
       </c>
       <c r="W82" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X82" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y82" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z82" t="n">
         <v>1000</v>
@@ -11533,13 +11533,13 @@
         <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC82" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD82" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE82" t="n">
         <v>1000</v>
@@ -11551,7 +11551,7 @@
         <v>980</v>
       </c>
       <c r="AH82" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI82" t="n">
         <v>1000</v>
@@ -11569,7 +11569,7 @@
         <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11608,16 +11608,16 @@
         <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="I83" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="J83" t="n">
         <v>3.25</v>
       </c>
       <c r="K83" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,16 +11626,16 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O83" t="n">
         <v>1.28</v>
       </c>
       <c r="P83" t="n">
-        <v>1.94</v>
+        <v>1.32</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R83" t="n">
         <v>1.31</v>
@@ -11650,7 +11650,7 @@
         <v>1.03</v>
       </c>
       <c r="V83" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="W83" t="n">
         <v>1.33</v>
@@ -11671,7 +11671,7 @@
         <v>1000</v>
       </c>
       <c r="AC83" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD83" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="G84" t="n">
         <v>3.25</v>
@@ -11746,13 +11746,13 @@
         <v>2.32</v>
       </c>
       <c r="I84" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J84" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11767,7 +11767,7 @@
         <v>1.25</v>
       </c>
       <c r="P84" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q84" t="n">
         <v>1.72</v>
@@ -11785,7 +11785,7 @@
         <v>2.3</v>
       </c>
       <c r="V84" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W84" t="n">
         <v>1.45</v>
@@ -11812,7 +11812,7 @@
         <v>17</v>
       </c>
       <c r="AE84" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF84" t="n">
         <v>32</v>
@@ -11827,7 +11827,7 @@
         <v>48</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK84" t="n">
         <v>46</v>
@@ -11836,13 +11836,13 @@
         <v>50</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN84" t="n">
         <v>34</v>
       </c>
       <c r="AO84" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -11875,13 +11875,13 @@
         <v>2.32</v>
       </c>
       <c r="G85" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H85" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I85" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J85" t="n">
         <v>3.5</v>
@@ -11896,22 +11896,22 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O85" t="n">
         <v>1.21</v>
       </c>
       <c r="P85" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R85" t="n">
         <v>1.47</v>
       </c>
       <c r="S85" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T85" t="n">
         <v>1.03</v>
@@ -11920,10 +11920,10 @@
         <v>1.03</v>
       </c>
       <c r="V85" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W85" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -11941,7 +11941,7 @@
         <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD85" t="n">
         <v>1000</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G86" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H86" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I86" t="n">
         <v>10.5</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
       </c>
       <c r="J86" t="n">
         <v>6.2</v>
@@ -12025,49 +12025,49 @@
         <v>6.4</v>
       </c>
       <c r="L86" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M86" t="n">
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
       </c>
       <c r="P86" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q86" t="n">
         <v>1.51</v>
       </c>
       <c r="R86" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S86" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T86" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U86" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V86" t="n">
         <v>1.1</v>
       </c>
       <c r="W86" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X86" t="n">
         <v>34</v>
       </c>
       <c r="Y86" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z86" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA86" t="n">
         <v>410</v>
@@ -12076,43 +12076,43 @@
         <v>11</v>
       </c>
       <c r="AC86" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD86" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE86" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF86" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG86" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH86" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI86" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ86" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK86" t="n">
         <v>12.5</v>
       </c>
       <c r="AL86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM86" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN86" t="n">
         <v>4.5</v>
       </c>
       <c r="AO86" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G87" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H87" t="n">
         <v>3.9</v>
@@ -12157,7 +12157,7 @@
         <v>3.75</v>
       </c>
       <c r="K87" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12172,13 +12172,13 @@
         <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q87" t="n">
         <v>1.66</v>
       </c>
       <c r="R87" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="S87" t="n">
         <v>2.58</v>
@@ -12193,7 +12193,7 @@
         <v>1.25</v>
       </c>
       <c r="W87" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12211,7 +12211,7 @@
         <v>1000</v>
       </c>
       <c r="AC87" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD87" t="n">
         <v>1000</v>
@@ -12280,19 +12280,19 @@
         <v>3.15</v>
       </c>
       <c r="G88" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H88" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="I88" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="J88" t="n">
         <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="L88" t="n">
         <v>1.01</v>
@@ -12307,7 +12307,7 @@
         <v>1.37</v>
       </c>
       <c r="P88" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q88" t="n">
         <v>1.37</v>
@@ -12325,10 +12325,10 @@
         <v>1.03</v>
       </c>
       <c r="V88" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W88" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12376,7 +12376,7 @@
         <v>1000</v>
       </c>
       <c r="AM88" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN88" t="n">
         <v>1000</v>
@@ -12427,7 +12427,7 @@
         <v>3.25</v>
       </c>
       <c r="K89" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
@@ -12445,7 +12445,7 @@
         <v>1.78</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R89" t="n">
         <v>1.3</v>
@@ -12466,7 +12466,7 @@
         <v>1.45</v>
       </c>
       <c r="X89" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y89" t="n">
         <v>10.5</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G90" t="n">
         <v>2.08</v>
@@ -12556,10 +12556,10 @@
         <v>4.2</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K90" t="n">
         <v>3.65</v>
@@ -12577,10 +12577,10 @@
         <v>1.02</v>
       </c>
       <c r="P90" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R90" t="n">
         <v>1.23</v>
@@ -12595,7 +12595,7 @@
         <v>1.03</v>
       </c>
       <c r="V90" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W90" t="n">
         <v>1.92</v>
@@ -12610,13 +12610,13 @@
         <v>1000</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB90" t="n">
         <v>1000</v>
       </c>
       <c r="AC90" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD90" t="n">
         <v>1000</v>
@@ -12646,10 +12646,10 @@
         <v>1000</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO90" t="n">
         <v>1000</v>
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="G91" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J91" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K91" t="n">
         <v>4</v>
@@ -12706,13 +12706,13 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="O91" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P91" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q91" t="n">
         <v>1.66</v>
@@ -12730,16 +12730,16 @@
         <v>1.03</v>
       </c>
       <c r="V91" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W91" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="X91" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y91" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z91" t="n">
         <v>1000</v>
@@ -12748,25 +12748,25 @@
         <v>1000</v>
       </c>
       <c r="AB91" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC91" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH91" t="n">
         <v>42</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>1000</v>
       </c>
       <c r="AI91" t="n">
         <v>1000</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G92" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H92" t="n">
         <v>5.8</v>
       </c>
       <c r="I92" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J92" t="n">
         <v>3.55</v>
       </c>
       <c r="K92" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>1.63</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12961,7 +12961,7 @@
         <v>2.34</v>
       </c>
       <c r="I93" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J93" t="n">
         <v>2.96</v>
@@ -12976,16 +12976,16 @@
         <v>1.12</v>
       </c>
       <c r="N93" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O93" t="n">
         <v>1.55</v>
       </c>
       <c r="P93" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R93" t="n">
         <v>1.18</v>
@@ -12994,16 +12994,16 @@
         <v>5.3</v>
       </c>
       <c r="T93" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U93" t="n">
         <v>1.74</v>
       </c>
       <c r="V93" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W93" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X93" t="n">
         <v>980</v>
@@ -13012,7 +13012,7 @@
         <v>980</v>
       </c>
       <c r="Z93" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AA93" t="n">
         <v>980</v>
@@ -13087,10 +13087,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G94" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H94" t="n">
         <v>6</v>
@@ -13099,10 +13099,10 @@
         <v>1000</v>
       </c>
       <c r="J94" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="K94" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13111,22 +13111,22 @@
         <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>1.76</v>
+        <v>1.11</v>
       </c>
       <c r="O94" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P94" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R94" t="n">
         <v>1.14</v>
       </c>
       <c r="S94" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T94" t="n">
         <v>1.03</v>
@@ -13138,7 +13138,7 @@
         <v>1.01</v>
       </c>
       <c r="W94" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X94" t="n">
         <v>1000</v>
@@ -13225,16 +13225,16 @@
         <v>3.1</v>
       </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>2.44</v>
       </c>
       <c r="I95" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J95" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K95" t="n">
         <v>3.7</v>
@@ -13246,22 +13246,22 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O95" t="n">
         <v>1.01</v>
       </c>
       <c r="P95" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R95" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S95" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T95" t="n">
         <v>1.03</v>
@@ -13270,10 +13270,10 @@
         <v>1.03</v>
       </c>
       <c r="V95" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W95" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X95" t="n">
         <v>1000</v>
@@ -13360,19 +13360,19 @@
         <v>3.15</v>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H96" t="n">
         <v>2.26</v>
       </c>
       <c r="I96" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J96" t="n">
         <v>3.45</v>
       </c>
       <c r="K96" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13381,22 +13381,22 @@
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="O96" t="n">
         <v>1.31</v>
       </c>
       <c r="P96" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R96" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S96" t="n">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="T96" t="n">
         <v>1.03</v>
@@ -13405,10 +13405,10 @@
         <v>1.03</v>
       </c>
       <c r="V96" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W96" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>
@@ -13501,13 +13501,13 @@
         <v>7.2</v>
       </c>
       <c r="I97" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J97" t="n">
         <v>5.6</v>
       </c>
       <c r="K97" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L97" t="n">
         <v>1.19</v>
@@ -13516,28 +13516,28 @@
         <v>1.01</v>
       </c>
       <c r="N97" t="n">
-        <v>1.11</v>
+        <v>7.4</v>
       </c>
       <c r="O97" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P97" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="R97" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="S97" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="T97" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="U97" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V97" t="n">
         <v>1.12</v>
@@ -13546,58 +13546,58 @@
         <v>3.25</v>
       </c>
       <c r="X97" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y97" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="Z97" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AA97" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB97" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AD97" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AE97" t="n">
         <v>120</v>
       </c>
       <c r="AF97" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AG97" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI97" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ97" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK97" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL97" t="n">
         <v>27</v>
       </c>
       <c r="AM97" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN97" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO97" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
@@ -13627,16 +13627,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G98" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H98" t="n">
         <v>4.3</v>
       </c>
       <c r="I98" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J98" t="n">
         <v>3.2</v>
@@ -13657,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13762,19 +13762,19 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G99" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H99" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I99" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J99" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K99" t="n">
         <v>4.6</v>
@@ -13792,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q99" t="n">
         <v>2.24</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G100" t="n">
         <v>2.76</v>
@@ -13906,10 +13906,10 @@
         <v>2.66</v>
       </c>
       <c r="I100" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J100" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K100" t="n">
         <v>3.9</v>
@@ -13921,46 +13921,46 @@
         <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O100" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P100" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R100" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S100" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="T100" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U100" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V100" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W100" t="n">
         <v>1.57</v>
       </c>
       <c r="X100" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y100" t="n">
         <v>15.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA100" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB100" t="n">
         <v>14.5</v>
@@ -13972,7 +13972,7 @@
         <v>13.5</v>
       </c>
       <c r="AE100" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF100" t="n">
         <v>20</v>
@@ -13984,25 +13984,25 @@
         <v>16</v>
       </c>
       <c r="AI100" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ100" t="n">
         <v>980</v>
       </c>
       <c r="AK100" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL100" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM100" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN100" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO100" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="101">
@@ -14062,16 +14062,16 @@
         <v>1.01</v>
       </c>
       <c r="P101" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="R101" t="n">
         <v>1.18</v>
       </c>
       <c r="S101" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T101" t="n">
         <v>1.03</v>
@@ -14167,19 +14167,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G102" t="n">
         <v>1.78</v>
       </c>
       <c r="H102" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I102" t="n">
         <v>7.8</v>
       </c>
       <c r="J102" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K102" t="n">
         <v>4.3</v>
@@ -14203,10 +14203,10 @@
         <v>1.97</v>
       </c>
       <c r="R102" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S102" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="T102" t="n">
         <v>1.03</v>
@@ -14215,10 +14215,10 @@
         <v>1.03</v>
       </c>
       <c r="V102" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W102" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X102" t="n">
         <v>1000</v>
